--- a/database/industries/chemical/sharum/product/monthly_seprated.xlsx
+++ b/database/industries/chemical/sharum/product/monthly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\chemical\sharum\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643AAA2F-DD05-4771-B264-B306B6BC1287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFCBB4C-C81C-4A62-9AC4-093AA33782FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="696" yWindow="1464" windowWidth="20460" windowHeight="10776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="91">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2023</t>
+    <t>Copyright @2015 - 2024</t>
   </si>
   <si>
     <t>شاروم-پتروشیمی ارومیه</t>
@@ -35,15 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 5 منتهی به 1398/05</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1398/06</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1398/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1398/08</t>
@@ -185,6 +176,15 @@
   </si>
   <si>
     <t>ماه 6 منتهی به 1402/06</t>
+  </si>
+  <si>
+    <t>ماه 7 منتهی به 1402/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1402/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1402/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1535,125 +1535,125 @@
       <c r="N12" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="O12" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P12" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q12" s="9" t="s">
-        <v>58</v>
+      <c r="O12" s="9">
+        <v>188</v>
+      </c>
+      <c r="P12" s="9">
+        <v>845</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>1595</v>
       </c>
       <c r="R12" s="9">
-        <v>188</v>
+        <v>1351</v>
       </c>
       <c r="S12" s="9">
-        <v>845</v>
+        <v>1513</v>
       </c>
       <c r="T12" s="9">
-        <v>1595</v>
+        <v>1685</v>
       </c>
       <c r="U12" s="9">
-        <v>1351</v>
+        <v>861</v>
       </c>
       <c r="V12" s="9">
-        <v>1513</v>
+        <v>689</v>
       </c>
       <c r="W12" s="9">
-        <v>1685</v>
+        <v>1394</v>
       </c>
       <c r="X12" s="9">
-        <v>861</v>
+        <v>1618</v>
       </c>
       <c r="Y12" s="9">
-        <v>689</v>
+        <v>1774</v>
       </c>
       <c r="Z12" s="9">
-        <v>1394</v>
+        <v>1547</v>
       </c>
       <c r="AA12" s="9">
+        <v>1199</v>
+      </c>
+      <c r="AB12" s="9">
         <v>1618</v>
       </c>
-      <c r="AB12" s="9">
-        <v>1774</v>
-      </c>
       <c r="AC12" s="9">
-        <v>1547</v>
+        <v>1145</v>
       </c>
       <c r="AD12" s="9">
-        <v>1199</v>
+        <v>1284</v>
       </c>
       <c r="AE12" s="9">
-        <v>1618</v>
+        <v>1382</v>
       </c>
       <c r="AF12" s="9">
-        <v>1145</v>
+        <v>1158</v>
       </c>
       <c r="AG12" s="9">
-        <v>1284</v>
+        <v>1662</v>
       </c>
       <c r="AH12" s="9">
-        <v>1382</v>
+        <v>1453</v>
       </c>
       <c r="AI12" s="9">
-        <v>1158</v>
+        <v>869</v>
       </c>
       <c r="AJ12" s="9">
+        <v>1345</v>
+      </c>
+      <c r="AK12" s="9">
+        <v>1310</v>
+      </c>
+      <c r="AL12" s="9">
+        <v>941</v>
+      </c>
+      <c r="AM12" s="9">
+        <v>930</v>
+      </c>
+      <c r="AN12" s="9">
+        <v>1037</v>
+      </c>
+      <c r="AO12" s="9">
+        <v>1258</v>
+      </c>
+      <c r="AP12" s="9">
+        <v>1439</v>
+      </c>
+      <c r="AQ12" s="9">
+        <v>1913</v>
+      </c>
+      <c r="AR12" s="9">
+        <v>2235</v>
+      </c>
+      <c r="AS12" s="9">
+        <v>2283</v>
+      </c>
+      <c r="AT12" s="9">
+        <v>1945</v>
+      </c>
+      <c r="AU12" s="9">
+        <v>1503</v>
+      </c>
+      <c r="AV12" s="9">
+        <v>1528</v>
+      </c>
+      <c r="AW12" s="9">
         <v>1662</v>
       </c>
-      <c r="AK12" s="9">
-        <v>1453</v>
-      </c>
-      <c r="AL12" s="9">
-        <v>869</v>
-      </c>
-      <c r="AM12" s="9">
-        <v>1345</v>
-      </c>
-      <c r="AN12" s="9">
-        <v>1310</v>
-      </c>
-      <c r="AO12" s="9">
-        <v>941</v>
-      </c>
-      <c r="AP12" s="9">
-        <v>930</v>
-      </c>
-      <c r="AQ12" s="9">
-        <v>1037</v>
-      </c>
-      <c r="AR12" s="9">
-        <v>1258</v>
-      </c>
-      <c r="AS12" s="9">
-        <v>1439</v>
-      </c>
-      <c r="AT12" s="9">
-        <v>1913</v>
-      </c>
-      <c r="AU12" s="9">
-        <v>2235</v>
-      </c>
-      <c r="AV12" s="9">
-        <v>2283</v>
-      </c>
-      <c r="AW12" s="9">
-        <v>1945</v>
-      </c>
       <c r="AX12" s="9">
-        <v>1503</v>
+        <v>2224</v>
       </c>
       <c r="AY12" s="9">
-        <v>1528</v>
+        <v>1826</v>
       </c>
       <c r="AZ12" s="9">
-        <v>1662</v>
+        <v>1880</v>
       </c>
       <c r="BA12" s="9">
-        <v>2224</v>
+        <v>1688</v>
       </c>
       <c r="BB12" s="9">
-        <v>1826</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1679,140 +1679,140 @@
       <c r="I13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="J13" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>58</v>
+      <c r="J13" s="13">
+        <v>3630</v>
+      </c>
+      <c r="K13" s="13">
+        <v>2788</v>
+      </c>
+      <c r="L13" s="13">
+        <v>3777</v>
       </c>
       <c r="M13" s="13">
-        <v>3630</v>
+        <v>3556</v>
       </c>
       <c r="N13" s="13">
-        <v>2788</v>
+        <v>3422</v>
       </c>
       <c r="O13" s="13">
-        <v>3777</v>
+        <v>3229</v>
       </c>
       <c r="P13" s="13">
-        <v>3556</v>
+        <v>3470</v>
       </c>
       <c r="Q13" s="13">
+        <v>3560</v>
+      </c>
+      <c r="R13" s="13">
+        <v>3560</v>
+      </c>
+      <c r="S13" s="13">
+        <v>3540</v>
+      </c>
+      <c r="T13" s="13">
+        <v>3118</v>
+      </c>
+      <c r="U13" s="13">
+        <v>2915</v>
+      </c>
+      <c r="V13" s="13">
+        <v>3260</v>
+      </c>
+      <c r="W13" s="13">
+        <v>3377</v>
+      </c>
+      <c r="X13" s="13">
+        <v>3707</v>
+      </c>
+      <c r="Y13" s="13">
+        <v>3194</v>
+      </c>
+      <c r="Z13" s="13">
+        <v>3395</v>
+      </c>
+      <c r="AA13" s="13">
+        <v>3356</v>
+      </c>
+      <c r="AB13" s="13">
+        <v>3426</v>
+      </c>
+      <c r="AC13" s="13">
+        <v>2453</v>
+      </c>
+      <c r="AD13" s="13">
+        <v>3160</v>
+      </c>
+      <c r="AE13" s="13">
+        <v>3045</v>
+      </c>
+      <c r="AF13" s="13">
+        <v>2807</v>
+      </c>
+      <c r="AG13" s="13">
+        <v>2587</v>
+      </c>
+      <c r="AH13" s="13">
+        <v>3196</v>
+      </c>
+      <c r="AI13" s="13">
+        <v>3157</v>
+      </c>
+      <c r="AJ13" s="13">
+        <v>2807</v>
+      </c>
+      <c r="AK13" s="13">
+        <v>2263</v>
+      </c>
+      <c r="AL13" s="13">
+        <v>3023</v>
+      </c>
+      <c r="AM13" s="13">
+        <v>2927</v>
+      </c>
+      <c r="AN13" s="13">
+        <v>2647</v>
+      </c>
+      <c r="AO13" s="13">
+        <v>2857</v>
+      </c>
+      <c r="AP13" s="13">
+        <v>3050</v>
+      </c>
+      <c r="AQ13" s="13">
+        <v>2699</v>
+      </c>
+      <c r="AR13" s="13">
+        <v>2660</v>
+      </c>
+      <c r="AS13" s="13">
+        <v>2824</v>
+      </c>
+      <c r="AT13" s="13">
+        <v>2878</v>
+      </c>
+      <c r="AU13" s="13">
+        <v>417</v>
+      </c>
+      <c r="AV13" s="13">
+        <v>1990</v>
+      </c>
+      <c r="AW13" s="13">
+        <v>3037</v>
+      </c>
+      <c r="AX13" s="13">
+        <v>3220</v>
+      </c>
+      <c r="AY13" s="13">
+        <v>2353</v>
+      </c>
+      <c r="AZ13" s="13">
+        <v>2280</v>
+      </c>
+      <c r="BA13" s="13">
         <v>3422</v>
       </c>
-      <c r="R13" s="13">
-        <v>3229</v>
-      </c>
-      <c r="S13" s="13">
-        <v>3470</v>
-      </c>
-      <c r="T13" s="13">
-        <v>3560</v>
-      </c>
-      <c r="U13" s="13">
-        <v>3560</v>
-      </c>
-      <c r="V13" s="13">
-        <v>3540</v>
-      </c>
-      <c r="W13" s="13">
-        <v>3118</v>
-      </c>
-      <c r="X13" s="13">
-        <v>2915</v>
-      </c>
-      <c r="Y13" s="13">
-        <v>3260</v>
-      </c>
-      <c r="Z13" s="13">
-        <v>3377</v>
-      </c>
-      <c r="AA13" s="13">
-        <v>3707</v>
-      </c>
-      <c r="AB13" s="13">
-        <v>3194</v>
-      </c>
-      <c r="AC13" s="13">
-        <v>3395</v>
-      </c>
-      <c r="AD13" s="13">
-        <v>3356</v>
-      </c>
-      <c r="AE13" s="13">
-        <v>3426</v>
-      </c>
-      <c r="AF13" s="13">
-        <v>2453</v>
-      </c>
-      <c r="AG13" s="13">
-        <v>3160</v>
-      </c>
-      <c r="AH13" s="13">
-        <v>3045</v>
-      </c>
-      <c r="AI13" s="13">
-        <v>2807</v>
-      </c>
-      <c r="AJ13" s="13">
-        <v>2587</v>
-      </c>
-      <c r="AK13" s="13">
-        <v>3196</v>
-      </c>
-      <c r="AL13" s="13">
-        <v>3157</v>
-      </c>
-      <c r="AM13" s="13">
-        <v>2807</v>
-      </c>
-      <c r="AN13" s="13">
-        <v>2263</v>
-      </c>
-      <c r="AO13" s="13">
-        <v>3023</v>
-      </c>
-      <c r="AP13" s="13">
-        <v>2927</v>
-      </c>
-      <c r="AQ13" s="13">
-        <v>2647</v>
-      </c>
-      <c r="AR13" s="13">
-        <v>2857</v>
-      </c>
-      <c r="AS13" s="13">
-        <v>3050</v>
-      </c>
-      <c r="AT13" s="13">
-        <v>2699</v>
-      </c>
-      <c r="AU13" s="13">
-        <v>2660</v>
-      </c>
-      <c r="AV13" s="13">
-        <v>2824</v>
-      </c>
-      <c r="AW13" s="13">
-        <v>2878</v>
-      </c>
-      <c r="AX13" s="13">
-        <v>417</v>
-      </c>
-      <c r="AY13" s="13">
-        <v>1990</v>
-      </c>
-      <c r="AZ13" s="13">
-        <v>3037</v>
-      </c>
-      <c r="BA13" s="13">
-        <v>3220</v>
-      </c>
       <c r="BB13" s="13">
-        <v>2353</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1838,140 +1838,140 @@
       <c r="I14" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="J14" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>58</v>
+      <c r="J14" s="9">
+        <v>334</v>
+      </c>
+      <c r="K14" s="9">
+        <v>329</v>
+      </c>
+      <c r="L14" s="9">
+        <v>317</v>
       </c>
       <c r="M14" s="9">
+        <v>355</v>
+      </c>
+      <c r="N14" s="9">
+        <v>359</v>
+      </c>
+      <c r="O14" s="9">
+        <v>377</v>
+      </c>
+      <c r="P14" s="9">
+        <v>367</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>345</v>
+      </c>
+      <c r="R14" s="9">
+        <v>333</v>
+      </c>
+      <c r="S14" s="9">
+        <v>345</v>
+      </c>
+      <c r="T14" s="9">
+        <v>127</v>
+      </c>
+      <c r="U14" s="9">
+        <v>325</v>
+      </c>
+      <c r="V14" s="9">
+        <v>296</v>
+      </c>
+      <c r="W14" s="9">
+        <v>317</v>
+      </c>
+      <c r="X14" s="9">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="9">
+        <v>311</v>
+      </c>
+      <c r="Z14" s="9">
+        <v>87</v>
+      </c>
+      <c r="AA14" s="9">
+        <v>333</v>
+      </c>
+      <c r="AB14" s="9">
+        <v>320</v>
+      </c>
+      <c r="AC14" s="9">
+        <v>324</v>
+      </c>
+      <c r="AD14" s="9">
+        <v>308</v>
+      </c>
+      <c r="AE14" s="9">
+        <v>253</v>
+      </c>
+      <c r="AF14" s="9">
+        <v>322</v>
+      </c>
+      <c r="AG14" s="9">
+        <v>326</v>
+      </c>
+      <c r="AH14" s="9">
+        <v>346</v>
+      </c>
+      <c r="AI14" s="9">
+        <v>316</v>
+      </c>
+      <c r="AJ14" s="9">
         <v>334</v>
       </c>
-      <c r="N14" s="9">
+      <c r="AK14" s="9">
         <v>329</v>
       </c>
-      <c r="O14" s="9">
-        <v>317</v>
-      </c>
-      <c r="P14" s="9">
-        <v>355</v>
-      </c>
-      <c r="Q14" s="9">
-        <v>359</v>
-      </c>
-      <c r="R14" s="9">
-        <v>377</v>
-      </c>
-      <c r="S14" s="9">
-        <v>367</v>
-      </c>
-      <c r="T14" s="9">
-        <v>345</v>
-      </c>
-      <c r="U14" s="9">
-        <v>333</v>
-      </c>
-      <c r="V14" s="9">
-        <v>345</v>
-      </c>
-      <c r="W14" s="9">
-        <v>127</v>
-      </c>
-      <c r="X14" s="9">
-        <v>325</v>
-      </c>
-      <c r="Y14" s="9">
-        <v>296</v>
-      </c>
-      <c r="Z14" s="9">
-        <v>317</v>
-      </c>
-      <c r="AA14" s="9">
-        <v>2</v>
-      </c>
-      <c r="AB14" s="9">
-        <v>311</v>
-      </c>
-      <c r="AC14" s="9">
-        <v>87</v>
-      </c>
-      <c r="AD14" s="9">
-        <v>333</v>
-      </c>
-      <c r="AE14" s="9">
-        <v>320</v>
-      </c>
-      <c r="AF14" s="9">
-        <v>324</v>
-      </c>
-      <c r="AG14" s="9">
-        <v>308</v>
-      </c>
-      <c r="AH14" s="9">
-        <v>253</v>
-      </c>
-      <c r="AI14" s="9">
-        <v>322</v>
-      </c>
-      <c r="AJ14" s="9">
-        <v>326</v>
-      </c>
-      <c r="AK14" s="9">
-        <v>346</v>
-      </c>
       <c r="AL14" s="9">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="AM14" s="9">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="AN14" s="9">
+        <v>286</v>
+      </c>
+      <c r="AO14" s="9">
         <v>329</v>
       </c>
-      <c r="AO14" s="9">
-        <v>340</v>
-      </c>
       <c r="AP14" s="9">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="AQ14" s="9">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="AR14" s="9">
-        <v>329</v>
+        <v>281</v>
       </c>
       <c r="AS14" s="9">
-        <v>328</v>
+        <v>262</v>
       </c>
       <c r="AT14" s="9">
-        <v>273</v>
+        <v>218</v>
       </c>
       <c r="AU14" s="9">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="AV14" s="9">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="AW14" s="9">
-        <v>218</v>
+        <v>365</v>
       </c>
       <c r="AX14" s="9">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="AY14" s="9">
-        <v>223</v>
+        <v>178</v>
       </c>
       <c r="AZ14" s="9">
-        <v>365</v>
+        <v>73</v>
       </c>
       <c r="BA14" s="9">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="BB14" s="9">
-        <v>178</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2000,137 +2000,137 @@
       <c r="J15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="K15" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>58</v>
+      <c r="K15" s="13">
+        <v>6225</v>
+      </c>
+      <c r="L15" s="13">
+        <v>4315</v>
+      </c>
+      <c r="M15" s="13">
+        <v>6633</v>
       </c>
       <c r="N15" s="13">
-        <v>6225</v>
+        <v>4555</v>
       </c>
       <c r="O15" s="13">
-        <v>4315</v>
+        <v>4400</v>
       </c>
       <c r="P15" s="13">
-        <v>6633</v>
+        <v>4020</v>
       </c>
       <c r="Q15" s="13">
-        <v>4555</v>
+        <v>4205</v>
       </c>
       <c r="R15" s="13">
-        <v>4400</v>
+        <v>4170</v>
       </c>
       <c r="S15" s="13">
-        <v>4020</v>
+        <v>4460</v>
       </c>
       <c r="T15" s="13">
-        <v>4205</v>
+        <v>4415</v>
       </c>
       <c r="U15" s="13">
-        <v>4170</v>
+        <v>4500</v>
       </c>
       <c r="V15" s="13">
-        <v>4460</v>
+        <v>4600</v>
       </c>
       <c r="W15" s="13">
-        <v>4415</v>
+        <v>4610</v>
       </c>
       <c r="X15" s="13">
-        <v>4500</v>
+        <v>4429</v>
       </c>
       <c r="Y15" s="13">
-        <v>4600</v>
+        <v>3308</v>
       </c>
       <c r="Z15" s="13">
-        <v>4610</v>
+        <v>3857</v>
       </c>
       <c r="AA15" s="13">
-        <v>4429</v>
+        <v>4236</v>
       </c>
       <c r="AB15" s="13">
-        <v>3308</v>
+        <v>4070</v>
       </c>
       <c r="AC15" s="13">
-        <v>3857</v>
+        <v>4053</v>
       </c>
       <c r="AD15" s="13">
-        <v>4236</v>
+        <v>4098</v>
       </c>
       <c r="AE15" s="13">
-        <v>4070</v>
+        <v>4187</v>
       </c>
       <c r="AF15" s="13">
-        <v>4053</v>
+        <v>4038</v>
       </c>
       <c r="AG15" s="13">
-        <v>4098</v>
+        <v>3484</v>
       </c>
       <c r="AH15" s="13">
-        <v>4187</v>
+        <v>3132</v>
       </c>
       <c r="AI15" s="13">
-        <v>4038</v>
+        <v>1745</v>
       </c>
       <c r="AJ15" s="13">
-        <v>3484</v>
+        <v>510</v>
       </c>
       <c r="AK15" s="13">
-        <v>3132</v>
+        <v>4446</v>
       </c>
       <c r="AL15" s="13">
-        <v>1745</v>
+        <v>4632</v>
       </c>
       <c r="AM15" s="13">
-        <v>510</v>
+        <v>4453</v>
       </c>
       <c r="AN15" s="13">
-        <v>4446</v>
+        <v>4106</v>
       </c>
       <c r="AO15" s="13">
-        <v>4632</v>
+        <v>3882</v>
       </c>
       <c r="AP15" s="13">
-        <v>4453</v>
+        <v>3321</v>
       </c>
       <c r="AQ15" s="13">
-        <v>4106</v>
+        <v>1247</v>
       </c>
       <c r="AR15" s="13">
-        <v>3882</v>
+        <v>1808</v>
       </c>
       <c r="AS15" s="13">
-        <v>3321</v>
+        <v>2802</v>
       </c>
       <c r="AT15" s="13">
-        <v>1247</v>
+        <v>2584</v>
       </c>
       <c r="AU15" s="13">
-        <v>1808</v>
+        <v>0</v>
       </c>
       <c r="AV15" s="13">
-        <v>2802</v>
+        <v>460</v>
       </c>
       <c r="AW15" s="13">
-        <v>2584</v>
+        <v>3872</v>
       </c>
       <c r="AX15" s="13">
-        <v>0</v>
+        <v>3941</v>
       </c>
       <c r="AY15" s="13">
-        <v>460</v>
+        <v>3637</v>
       </c>
       <c r="AZ15" s="13">
-        <v>3872</v>
+        <v>3643</v>
       </c>
       <c r="BA15" s="13">
-        <v>3941</v>
+        <v>3596</v>
       </c>
       <c r="BB15" s="13">
-        <v>3637</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2156,8 +2156,8 @@
       <c r="I16" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="J16" s="9" t="s">
-        <v>58</v>
+      <c r="J16" s="9">
+        <v>6211</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>58</v>
@@ -2165,8 +2165,8 @@
       <c r="L16" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M16" s="9">
-        <v>6211</v>
+      <c r="M16" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="N16" s="9" t="s">
         <v>58</v>
@@ -2330,65 +2330,65 @@
       <c r="N17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="O17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="P17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q17" s="13" t="s">
-        <v>58</v>
+      <c r="O17" s="13">
+        <v>253</v>
+      </c>
+      <c r="P17" s="13">
+        <v>939</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>1927</v>
       </c>
       <c r="R17" s="13">
-        <v>253</v>
+        <v>1604</v>
       </c>
       <c r="S17" s="13">
-        <v>939</v>
+        <v>1693</v>
       </c>
       <c r="T17" s="13">
-        <v>1927</v>
+        <v>2010</v>
       </c>
       <c r="U17" s="13">
-        <v>1604</v>
+        <v>1139</v>
       </c>
       <c r="V17" s="13">
-        <v>1693</v>
+        <v>753</v>
       </c>
       <c r="W17" s="13">
-        <v>2010</v>
+        <v>1537</v>
       </c>
       <c r="X17" s="13">
-        <v>1139</v>
+        <v>1786</v>
       </c>
       <c r="Y17" s="13">
-        <v>753</v>
+        <v>3397</v>
       </c>
       <c r="Z17" s="13">
-        <v>1537</v>
+        <v>1930</v>
       </c>
       <c r="AA17" s="13">
-        <v>1786</v>
+        <v>1407</v>
       </c>
       <c r="AB17" s="13">
-        <v>3397</v>
+        <v>1910</v>
       </c>
       <c r="AC17" s="13">
-        <v>1930</v>
-      </c>
-      <c r="AD17" s="13">
-        <v>1407</v>
-      </c>
-      <c r="AE17" s="13">
-        <v>1910</v>
-      </c>
-      <c r="AF17" s="13">
         <v>1546</v>
       </c>
+      <c r="AD17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF17" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AG17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH17" s="13" t="s">
-        <v>58</v>
+      <c r="AH17" s="13">
+        <v>0</v>
       </c>
       <c r="AI17" s="13" t="s">
         <v>58</v>
@@ -2396,8 +2396,8 @@
       <c r="AJ17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK17" s="13">
-        <v>0</v>
+      <c r="AK17" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AL17" s="13" t="s">
         <v>58</v>
@@ -2473,139 +2473,139 @@
         <v>0</v>
       </c>
       <c r="J18" s="15">
-        <v>0</v>
+        <v>10175</v>
       </c>
       <c r="K18" s="15">
-        <v>0</v>
+        <v>9342</v>
       </c>
       <c r="L18" s="15">
-        <v>0</v>
+        <v>8409</v>
       </c>
       <c r="M18" s="15">
-        <v>10175</v>
+        <v>10544</v>
       </c>
       <c r="N18" s="15">
-        <v>9342</v>
+        <v>8336</v>
       </c>
       <c r="O18" s="15">
-        <v>8409</v>
+        <v>8447</v>
       </c>
       <c r="P18" s="15">
-        <v>10544</v>
+        <v>9641</v>
       </c>
       <c r="Q18" s="15">
-        <v>8336</v>
+        <v>11632</v>
       </c>
       <c r="R18" s="15">
-        <v>8447</v>
+        <v>11018</v>
       </c>
       <c r="S18" s="15">
-        <v>9641</v>
+        <v>11551</v>
       </c>
       <c r="T18" s="15">
-        <v>11632</v>
+        <v>11355</v>
       </c>
       <c r="U18" s="15">
-        <v>11018</v>
+        <v>9740</v>
       </c>
       <c r="V18" s="15">
-        <v>11551</v>
+        <v>9598</v>
       </c>
       <c r="W18" s="15">
-        <v>11355</v>
+        <v>11235</v>
       </c>
       <c r="X18" s="15">
-        <v>9740</v>
+        <v>11542</v>
       </c>
       <c r="Y18" s="15">
-        <v>9598</v>
+        <v>11984</v>
       </c>
       <c r="Z18" s="15">
-        <v>11235</v>
+        <v>10816</v>
       </c>
       <c r="AA18" s="15">
-        <v>11542</v>
+        <v>10531</v>
       </c>
       <c r="AB18" s="15">
-        <v>11984</v>
+        <v>11344</v>
       </c>
       <c r="AC18" s="15">
-        <v>10816</v>
+        <v>9521</v>
       </c>
       <c r="AD18" s="15">
-        <v>10531</v>
+        <v>8850</v>
       </c>
       <c r="AE18" s="15">
-        <v>11344</v>
+        <v>8867</v>
       </c>
       <c r="AF18" s="15">
-        <v>9521</v>
+        <v>8325</v>
       </c>
       <c r="AG18" s="15">
-        <v>8850</v>
+        <v>8059</v>
       </c>
       <c r="AH18" s="15">
-        <v>8867</v>
+        <v>8127</v>
       </c>
       <c r="AI18" s="15">
-        <v>8325</v>
+        <v>6087</v>
       </c>
       <c r="AJ18" s="15">
-        <v>8059</v>
+        <v>4996</v>
       </c>
       <c r="AK18" s="15">
-        <v>8127</v>
+        <v>8348</v>
       </c>
       <c r="AL18" s="15">
-        <v>6087</v>
+        <v>8936</v>
       </c>
       <c r="AM18" s="15">
-        <v>4996</v>
+        <v>8650</v>
       </c>
       <c r="AN18" s="15">
-        <v>8348</v>
+        <v>8076</v>
       </c>
       <c r="AO18" s="15">
+        <v>8326</v>
+      </c>
+      <c r="AP18" s="15">
+        <v>8138</v>
+      </c>
+      <c r="AQ18" s="15">
+        <v>6132</v>
+      </c>
+      <c r="AR18" s="15">
+        <v>6984</v>
+      </c>
+      <c r="AS18" s="15">
+        <v>8171</v>
+      </c>
+      <c r="AT18" s="15">
+        <v>7625</v>
+      </c>
+      <c r="AU18" s="15">
+        <v>1920</v>
+      </c>
+      <c r="AV18" s="15">
+        <v>4201</v>
+      </c>
+      <c r="AW18" s="15">
         <v>8936</v>
       </c>
-      <c r="AP18" s="15">
-        <v>8650</v>
-      </c>
-      <c r="AQ18" s="15">
-        <v>8076</v>
-      </c>
-      <c r="AR18" s="15">
-        <v>8326</v>
-      </c>
-      <c r="AS18" s="15">
-        <v>8138</v>
-      </c>
-      <c r="AT18" s="15">
-        <v>6132</v>
-      </c>
-      <c r="AU18" s="15">
-        <v>6984</v>
-      </c>
-      <c r="AV18" s="15">
-        <v>8171</v>
-      </c>
-      <c r="AW18" s="15">
-        <v>7625</v>
-      </c>
       <c r="AX18" s="15">
-        <v>1920</v>
+        <v>9734</v>
       </c>
       <c r="AY18" s="15">
-        <v>4201</v>
+        <v>7994</v>
       </c>
       <c r="AZ18" s="15">
-        <v>8936</v>
+        <v>7876</v>
       </c>
       <c r="BA18" s="15">
-        <v>9734</v>
+        <v>9042</v>
       </c>
       <c r="BB18" s="15">
-        <v>7994</v>
+        <v>9870</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2757,14 +2757,14 @@
       <c r="AF20" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AG20" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH20" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI20" s="9" t="s">
-        <v>58</v>
+      <c r="AG20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="9">
+        <v>0</v>
       </c>
       <c r="AJ20" s="9">
         <v>0</v>
@@ -2856,17 +2856,17 @@
       <c r="L21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="M21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="N21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="O21" s="13" t="s">
-        <v>58</v>
+      <c r="M21" s="13">
+        <v>120</v>
+      </c>
+      <c r="N21" s="13">
+        <v>0</v>
+      </c>
+      <c r="O21" s="13">
+        <v>0</v>
       </c>
       <c r="P21" s="13">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="13">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="13">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U21" s="13">
         <v>0</v>
@@ -2886,29 +2886,29 @@
       <c r="V21" s="13">
         <v>0</v>
       </c>
-      <c r="W21" s="13">
-        <v>200</v>
+      <c r="W21" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="X21" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="13" t="s">
-        <v>58</v>
+        <v>310</v>
+      </c>
+      <c r="Y21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z21" s="13">
+        <v>220</v>
       </c>
       <c r="AA21" s="13">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="AB21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC21" s="13">
-        <v>220</v>
-      </c>
-      <c r="AD21" s="13">
-        <v>0</v>
+      <c r="AC21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD21" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE21" s="13" t="s">
         <v>58</v>
@@ -2916,14 +2916,14 @@
       <c r="AF21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI21" s="13" t="s">
-        <v>58</v>
+      <c r="AG21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="13">
+        <v>0</v>
       </c>
       <c r="AJ21" s="13">
         <v>0</v>
@@ -3014,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="15">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="N22" s="15">
         <v>0</v>
@@ -3023,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="15">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="15">
         <v>0</v>
@@ -3035,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="15">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U22" s="15">
         <v>0</v>
@@ -3044,25 +3044,25 @@
         <v>0</v>
       </c>
       <c r="W22" s="15">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X22" s="15">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="Y22" s="15">
         <v>0</v>
       </c>
       <c r="Z22" s="15">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AA22" s="15">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="AB22" s="15">
         <v>0</v>
       </c>
       <c r="AC22" s="15">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="AD22" s="15">
         <v>0</v>
@@ -3376,139 +3376,139 @@
         <v>0</v>
       </c>
       <c r="J25" s="19">
-        <v>0</v>
+        <v>10175</v>
       </c>
       <c r="K25" s="19">
-        <v>0</v>
+        <v>9342</v>
       </c>
       <c r="L25" s="19">
-        <v>0</v>
+        <v>8409</v>
       </c>
       <c r="M25" s="19">
-        <v>10175</v>
+        <v>10664</v>
       </c>
       <c r="N25" s="19">
-        <v>9342</v>
+        <v>8336</v>
       </c>
       <c r="O25" s="19">
-        <v>8409</v>
+        <v>8447</v>
       </c>
       <c r="P25" s="19">
-        <v>10664</v>
+        <v>9641</v>
       </c>
       <c r="Q25" s="19">
-        <v>8336</v>
+        <v>11632</v>
       </c>
       <c r="R25" s="19">
-        <v>8447</v>
+        <v>11018</v>
       </c>
       <c r="S25" s="19">
-        <v>9641</v>
+        <v>11551</v>
       </c>
       <c r="T25" s="19">
-        <v>11632</v>
+        <v>11555</v>
       </c>
       <c r="U25" s="19">
-        <v>11018</v>
+        <v>9740</v>
       </c>
       <c r="V25" s="19">
-        <v>11551</v>
+        <v>9598</v>
       </c>
       <c r="W25" s="19">
-        <v>11555</v>
+        <v>11235</v>
       </c>
       <c r="X25" s="19">
-        <v>9740</v>
+        <v>11852</v>
       </c>
       <c r="Y25" s="19">
-        <v>9598</v>
+        <v>11984</v>
       </c>
       <c r="Z25" s="19">
-        <v>11235</v>
+        <v>11036</v>
       </c>
       <c r="AA25" s="19">
-        <v>11852</v>
+        <v>10531</v>
       </c>
       <c r="AB25" s="19">
-        <v>11984</v>
+        <v>11344</v>
       </c>
       <c r="AC25" s="19">
-        <v>11036</v>
+        <v>9521</v>
       </c>
       <c r="AD25" s="19">
-        <v>10531</v>
+        <v>8850</v>
       </c>
       <c r="AE25" s="19">
-        <v>11344</v>
+        <v>8867</v>
       </c>
       <c r="AF25" s="19">
-        <v>9521</v>
+        <v>8325</v>
       </c>
       <c r="AG25" s="19">
-        <v>8850</v>
+        <v>8059</v>
       </c>
       <c r="AH25" s="19">
-        <v>8867</v>
+        <v>8127</v>
       </c>
       <c r="AI25" s="19">
-        <v>8325</v>
+        <v>6087</v>
       </c>
       <c r="AJ25" s="19">
-        <v>8059</v>
+        <v>4996</v>
       </c>
       <c r="AK25" s="19">
-        <v>8127</v>
+        <v>8348</v>
       </c>
       <c r="AL25" s="19">
-        <v>6087</v>
+        <v>8936</v>
       </c>
       <c r="AM25" s="19">
-        <v>4996</v>
+        <v>8650</v>
       </c>
       <c r="AN25" s="19">
-        <v>8348</v>
+        <v>8076</v>
       </c>
       <c r="AO25" s="19">
+        <v>8326</v>
+      </c>
+      <c r="AP25" s="19">
+        <v>8138</v>
+      </c>
+      <c r="AQ25" s="19">
+        <v>6132</v>
+      </c>
+      <c r="AR25" s="19">
+        <v>6984</v>
+      </c>
+      <c r="AS25" s="19">
+        <v>8171</v>
+      </c>
+      <c r="AT25" s="19">
+        <v>7625</v>
+      </c>
+      <c r="AU25" s="19">
+        <v>1920</v>
+      </c>
+      <c r="AV25" s="19">
+        <v>4201</v>
+      </c>
+      <c r="AW25" s="19">
         <v>8936</v>
       </c>
-      <c r="AP25" s="19">
-        <v>8650</v>
-      </c>
-      <c r="AQ25" s="19">
-        <v>8076</v>
-      </c>
-      <c r="AR25" s="19">
-        <v>8326</v>
-      </c>
-      <c r="AS25" s="19">
-        <v>8138</v>
-      </c>
-      <c r="AT25" s="19">
-        <v>6132</v>
-      </c>
-      <c r="AU25" s="19">
-        <v>6984</v>
-      </c>
-      <c r="AV25" s="19">
-        <v>8171</v>
-      </c>
-      <c r="AW25" s="19">
-        <v>7625</v>
-      </c>
       <c r="AX25" s="19">
-        <v>1920</v>
+        <v>9734</v>
       </c>
       <c r="AY25" s="19">
-        <v>4201</v>
+        <v>7994</v>
       </c>
       <c r="AZ25" s="19">
-        <v>8936</v>
+        <v>7876</v>
       </c>
       <c r="BA25" s="19">
-        <v>9734</v>
+        <v>9042</v>
       </c>
       <c r="BB25" s="19">
-        <v>7994</v>
+        <v>9870</v>
       </c>
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.3">
@@ -4038,125 +4038,125 @@
       <c r="N33" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="O33" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P33" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q33" s="9" t="s">
-        <v>58</v>
+      <c r="O33" s="9">
+        <v>0</v>
+      </c>
+      <c r="P33" s="9">
+        <v>44</v>
+      </c>
+      <c r="Q33" s="9">
+        <v>119</v>
       </c>
       <c r="R33" s="9">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="S33" s="9">
-        <v>44</v>
+        <v>338</v>
       </c>
       <c r="T33" s="9">
-        <v>119</v>
+        <v>524</v>
       </c>
       <c r="U33" s="9">
-        <v>166</v>
+        <v>2069</v>
       </c>
       <c r="V33" s="9">
-        <v>338</v>
+        <v>719</v>
       </c>
       <c r="W33" s="9">
-        <v>524</v>
+        <v>1986</v>
       </c>
       <c r="X33" s="9">
-        <v>2069</v>
+        <v>1862</v>
       </c>
       <c r="Y33" s="9">
-        <v>719</v>
+        <v>256</v>
       </c>
       <c r="Z33" s="9">
-        <v>1986</v>
+        <v>48</v>
       </c>
       <c r="AA33" s="9">
-        <v>1862</v>
+        <v>104</v>
       </c>
       <c r="AB33" s="9">
-        <v>256</v>
+        <v>50</v>
       </c>
       <c r="AC33" s="9">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="AD33" s="9">
-        <v>104</v>
+        <v>702</v>
       </c>
       <c r="AE33" s="9">
-        <v>50</v>
+        <v>3243</v>
       </c>
       <c r="AF33" s="9">
-        <v>74</v>
+        <v>7362</v>
       </c>
       <c r="AG33" s="9">
-        <v>702</v>
+        <v>986</v>
       </c>
       <c r="AH33" s="9">
-        <v>3243</v>
+        <v>1488</v>
       </c>
       <c r="AI33" s="9">
-        <v>7362</v>
+        <v>676</v>
       </c>
       <c r="AJ33" s="9">
-        <v>986</v>
+        <v>726</v>
       </c>
       <c r="AK33" s="9">
-        <v>1488</v>
+        <v>2408</v>
       </c>
       <c r="AL33" s="9">
-        <v>676</v>
+        <v>1090</v>
       </c>
       <c r="AM33" s="9">
-        <v>726</v>
+        <v>2040</v>
       </c>
       <c r="AN33" s="9">
-        <v>2408</v>
+        <v>1898</v>
       </c>
       <c r="AO33" s="9">
-        <v>1090</v>
+        <v>3258</v>
       </c>
       <c r="AP33" s="9">
-        <v>2040</v>
+        <v>1538</v>
       </c>
       <c r="AQ33" s="9">
-        <v>1898</v>
+        <v>28</v>
       </c>
       <c r="AR33" s="9">
-        <v>3258</v>
+        <v>525</v>
       </c>
       <c r="AS33" s="9">
-        <v>1538</v>
+        <v>3439</v>
       </c>
       <c r="AT33" s="9">
-        <v>28</v>
+        <v>6107</v>
       </c>
       <c r="AU33" s="9">
-        <v>525</v>
+        <v>4157</v>
       </c>
       <c r="AV33" s="9">
-        <v>3439</v>
+        <v>2581</v>
       </c>
       <c r="AW33" s="9">
-        <v>6107</v>
+        <v>2282</v>
       </c>
       <c r="AX33" s="9">
-        <v>4157</v>
+        <v>2686</v>
       </c>
       <c r="AY33" s="9">
-        <v>2581</v>
+        <v>625</v>
       </c>
       <c r="AZ33" s="9">
-        <v>2282</v>
+        <v>627</v>
       </c>
       <c r="BA33" s="9">
-        <v>2686</v>
+        <v>672</v>
       </c>
       <c r="BB33" s="9">
-        <v>625</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -4182,140 +4182,140 @@
       <c r="I34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="J34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="K34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L34" s="13" t="s">
-        <v>58</v>
+      <c r="J34" s="13">
+        <v>6258</v>
+      </c>
+      <c r="K34" s="13">
+        <v>5160</v>
+      </c>
+      <c r="L34" s="13">
+        <v>3718</v>
       </c>
       <c r="M34" s="13">
-        <v>6258</v>
+        <v>3902</v>
       </c>
       <c r="N34" s="13">
-        <v>5160</v>
+        <v>3182</v>
       </c>
       <c r="O34" s="13">
-        <v>3718</v>
+        <v>3747</v>
       </c>
       <c r="P34" s="13">
-        <v>3902</v>
+        <v>3449</v>
       </c>
       <c r="Q34" s="13">
-        <v>3182</v>
+        <v>2925</v>
       </c>
       <c r="R34" s="13">
-        <v>3747</v>
+        <v>3483</v>
       </c>
       <c r="S34" s="13">
-        <v>3449</v>
+        <v>3999</v>
       </c>
       <c r="T34" s="13">
-        <v>2925</v>
+        <v>4185</v>
       </c>
       <c r="U34" s="13">
-        <v>3483</v>
+        <v>3218</v>
       </c>
       <c r="V34" s="13">
-        <v>3999</v>
+        <v>2982</v>
       </c>
       <c r="W34" s="13">
-        <v>4185</v>
+        <v>2238</v>
       </c>
       <c r="X34" s="13">
-        <v>3218</v>
+        <v>2225</v>
       </c>
       <c r="Y34" s="13">
-        <v>2982</v>
+        <v>1872</v>
       </c>
       <c r="Z34" s="13">
-        <v>2238</v>
+        <v>1672</v>
       </c>
       <c r="AA34" s="13">
-        <v>2225</v>
+        <v>1795</v>
       </c>
       <c r="AB34" s="13">
-        <v>1872</v>
+        <v>991</v>
       </c>
       <c r="AC34" s="13">
-        <v>1672</v>
+        <v>687</v>
       </c>
       <c r="AD34" s="13">
-        <v>1795</v>
+        <v>1791</v>
       </c>
       <c r="AE34" s="13">
-        <v>991</v>
+        <v>1855</v>
       </c>
       <c r="AF34" s="13">
-        <v>687</v>
+        <v>2171</v>
       </c>
       <c r="AG34" s="13">
-        <v>1791</v>
+        <v>3438</v>
       </c>
       <c r="AH34" s="13">
-        <v>1855</v>
+        <v>1633</v>
       </c>
       <c r="AI34" s="13">
-        <v>2171</v>
+        <v>1032</v>
       </c>
       <c r="AJ34" s="13">
-        <v>3438</v>
+        <v>1849</v>
       </c>
       <c r="AK34" s="13">
-        <v>1633</v>
+        <v>1906</v>
       </c>
       <c r="AL34" s="13">
-        <v>1032</v>
+        <v>2638</v>
       </c>
       <c r="AM34" s="13">
-        <v>1849</v>
+        <v>2568</v>
       </c>
       <c r="AN34" s="13">
-        <v>1906</v>
+        <v>1785</v>
       </c>
       <c r="AO34" s="13">
-        <v>2638</v>
+        <v>1019</v>
       </c>
       <c r="AP34" s="13">
-        <v>2568</v>
+        <v>744</v>
       </c>
       <c r="AQ34" s="13">
-        <v>1785</v>
+        <v>1184</v>
       </c>
       <c r="AR34" s="13">
-        <v>1019</v>
+        <v>2775</v>
       </c>
       <c r="AS34" s="13">
-        <v>744</v>
+        <v>4454</v>
       </c>
       <c r="AT34" s="13">
-        <v>1184</v>
+        <v>5305</v>
       </c>
       <c r="AU34" s="13">
-        <v>2775</v>
+        <v>2654</v>
       </c>
       <c r="AV34" s="13">
-        <v>4454</v>
+        <v>2763</v>
       </c>
       <c r="AW34" s="13">
-        <v>5305</v>
+        <v>1608</v>
       </c>
       <c r="AX34" s="13">
-        <v>2654</v>
+        <v>1399</v>
       </c>
       <c r="AY34" s="13">
-        <v>2763</v>
+        <v>876</v>
       </c>
       <c r="AZ34" s="13">
-        <v>1608</v>
+        <v>998</v>
       </c>
       <c r="BA34" s="13">
-        <v>1399</v>
+        <v>905</v>
       </c>
       <c r="BB34" s="13">
-        <v>876</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -4341,140 +4341,140 @@
       <c r="I35" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="J35" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="L35" s="9" t="s">
-        <v>58</v>
+      <c r="J35" s="9">
+        <v>285</v>
+      </c>
+      <c r="K35" s="9">
+        <v>419</v>
+      </c>
+      <c r="L35" s="9">
+        <v>270</v>
       </c>
       <c r="M35" s="9">
-        <v>285</v>
+        <v>223</v>
       </c>
       <c r="N35" s="9">
-        <v>419</v>
+        <v>330</v>
       </c>
       <c r="O35" s="9">
-        <v>270</v>
+        <v>366</v>
       </c>
       <c r="P35" s="9">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q35" s="9">
-        <v>330</v>
+        <v>278</v>
       </c>
       <c r="R35" s="9">
-        <v>366</v>
+        <v>298</v>
       </c>
       <c r="S35" s="9">
+        <v>436</v>
+      </c>
+      <c r="T35" s="9">
+        <v>302</v>
+      </c>
+      <c r="U35" s="9">
+        <v>244</v>
+      </c>
+      <c r="V35" s="9">
+        <v>120</v>
+      </c>
+      <c r="W35" s="9">
+        <v>198</v>
+      </c>
+      <c r="X35" s="9">
+        <v>95</v>
+      </c>
+      <c r="Y35" s="9">
+        <v>151</v>
+      </c>
+      <c r="Z35" s="9">
+        <v>110</v>
+      </c>
+      <c r="AA35" s="9">
+        <v>244</v>
+      </c>
+      <c r="AB35" s="9">
+        <v>120</v>
+      </c>
+      <c r="AC35" s="9">
+        <v>240</v>
+      </c>
+      <c r="AD35" s="9">
+        <v>324</v>
+      </c>
+      <c r="AE35" s="9">
+        <v>265</v>
+      </c>
+      <c r="AF35" s="9">
+        <v>250</v>
+      </c>
+      <c r="AG35" s="9">
+        <v>200</v>
+      </c>
+      <c r="AH35" s="9">
+        <v>144</v>
+      </c>
+      <c r="AI35" s="9">
+        <v>125</v>
+      </c>
+      <c r="AJ35" s="9">
+        <v>326</v>
+      </c>
+      <c r="AK35" s="9">
+        <v>103</v>
+      </c>
+      <c r="AL35" s="9">
+        <v>174</v>
+      </c>
+      <c r="AM35" s="9">
+        <v>272</v>
+      </c>
+      <c r="AN35" s="9">
+        <v>777</v>
+      </c>
+      <c r="AO35" s="9">
+        <v>584</v>
+      </c>
+      <c r="AP35" s="9">
+        <v>248</v>
+      </c>
+      <c r="AQ35" s="9">
+        <v>607</v>
+      </c>
+      <c r="AR35" s="9">
+        <v>353</v>
+      </c>
+      <c r="AS35" s="9">
+        <v>294</v>
+      </c>
+      <c r="AT35" s="9">
+        <v>225</v>
+      </c>
+      <c r="AU35" s="9">
+        <v>0</v>
+      </c>
+      <c r="AV35" s="9">
+        <v>220</v>
+      </c>
+      <c r="AW35" s="9">
+        <v>328</v>
+      </c>
+      <c r="AX35" s="9">
+        <v>355</v>
+      </c>
+      <c r="AY35" s="9">
         <v>228</v>
       </c>
-      <c r="T35" s="9">
-        <v>278</v>
-      </c>
-      <c r="U35" s="9">
-        <v>298</v>
-      </c>
-      <c r="V35" s="9">
-        <v>436</v>
-      </c>
-      <c r="W35" s="9">
-        <v>302</v>
-      </c>
-      <c r="X35" s="9">
-        <v>244</v>
-      </c>
-      <c r="Y35" s="9">
-        <v>120</v>
-      </c>
-      <c r="Z35" s="9">
-        <v>198</v>
-      </c>
-      <c r="AA35" s="9">
-        <v>95</v>
-      </c>
-      <c r="AB35" s="9">
-        <v>151</v>
-      </c>
-      <c r="AC35" s="9">
-        <v>110</v>
-      </c>
-      <c r="AD35" s="9">
-        <v>244</v>
-      </c>
-      <c r="AE35" s="9">
-        <v>120</v>
-      </c>
-      <c r="AF35" s="9">
-        <v>240</v>
-      </c>
-      <c r="AG35" s="9">
+      <c r="AZ35" s="9">
+        <v>4</v>
+      </c>
+      <c r="BA35" s="9">
+        <v>72</v>
+      </c>
+      <c r="BB35" s="9">
         <v>324</v>
-      </c>
-      <c r="AH35" s="9">
-        <v>265</v>
-      </c>
-      <c r="AI35" s="9">
-        <v>250</v>
-      </c>
-      <c r="AJ35" s="9">
-        <v>200</v>
-      </c>
-      <c r="AK35" s="9">
-        <v>144</v>
-      </c>
-      <c r="AL35" s="9">
-        <v>125</v>
-      </c>
-      <c r="AM35" s="9">
-        <v>326</v>
-      </c>
-      <c r="AN35" s="9">
-        <v>103</v>
-      </c>
-      <c r="AO35" s="9">
-        <v>174</v>
-      </c>
-      <c r="AP35" s="9">
-        <v>272</v>
-      </c>
-      <c r="AQ35" s="9">
-        <v>777</v>
-      </c>
-      <c r="AR35" s="9">
-        <v>584</v>
-      </c>
-      <c r="AS35" s="9">
-        <v>248</v>
-      </c>
-      <c r="AT35" s="9">
-        <v>607</v>
-      </c>
-      <c r="AU35" s="9">
-        <v>353</v>
-      </c>
-      <c r="AV35" s="9">
-        <v>294</v>
-      </c>
-      <c r="AW35" s="9">
-        <v>225</v>
-      </c>
-      <c r="AX35" s="9">
-        <v>0</v>
-      </c>
-      <c r="AY35" s="9">
-        <v>220</v>
-      </c>
-      <c r="AZ35" s="9">
-        <v>328</v>
-      </c>
-      <c r="BA35" s="9">
-        <v>355</v>
-      </c>
-      <c r="BB35" s="9">
-        <v>228</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
@@ -4503,137 +4503,137 @@
       <c r="J36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="K36" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L36" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="M36" s="13" t="s">
-        <v>58</v>
+      <c r="K36" s="13">
+        <v>1359</v>
+      </c>
+      <c r="L36" s="13">
+        <v>699</v>
+      </c>
+      <c r="M36" s="13">
+        <v>1198</v>
       </c>
       <c r="N36" s="13">
-        <v>1359</v>
+        <v>1092</v>
       </c>
       <c r="O36" s="13">
-        <v>699</v>
+        <v>1556</v>
       </c>
       <c r="P36" s="13">
-        <v>1198</v>
+        <v>2148</v>
       </c>
       <c r="Q36" s="13">
-        <v>1092</v>
+        <v>1552</v>
       </c>
       <c r="R36" s="13">
-        <v>1556</v>
+        <v>1634</v>
       </c>
       <c r="S36" s="13">
-        <v>2148</v>
+        <v>1353</v>
       </c>
       <c r="T36" s="13">
-        <v>1552</v>
+        <v>985</v>
       </c>
       <c r="U36" s="13">
-        <v>1634</v>
+        <v>1028</v>
       </c>
       <c r="V36" s="13">
-        <v>1353</v>
+        <v>1320</v>
       </c>
       <c r="W36" s="13">
-        <v>985</v>
+        <v>1195</v>
       </c>
       <c r="X36" s="13">
-        <v>1028</v>
+        <v>1186</v>
       </c>
       <c r="Y36" s="13">
-        <v>1320</v>
+        <v>1263</v>
       </c>
       <c r="Z36" s="13">
-        <v>1195</v>
+        <v>880</v>
       </c>
       <c r="AA36" s="13">
-        <v>1186</v>
+        <v>1126</v>
       </c>
       <c r="AB36" s="13">
-        <v>1263</v>
+        <v>1450</v>
       </c>
       <c r="AC36" s="13">
-        <v>880</v>
+        <v>1296</v>
       </c>
       <c r="AD36" s="13">
-        <v>1126</v>
+        <v>1067</v>
       </c>
       <c r="AE36" s="13">
-        <v>1450</v>
+        <v>749</v>
       </c>
       <c r="AF36" s="13">
-        <v>1296</v>
+        <v>975</v>
       </c>
       <c r="AG36" s="13">
-        <v>1067</v>
+        <v>1482</v>
       </c>
       <c r="AH36" s="13">
-        <v>749</v>
+        <v>1301</v>
       </c>
       <c r="AI36" s="13">
-        <v>975</v>
+        <v>0</v>
       </c>
       <c r="AJ36" s="13">
-        <v>1482</v>
+        <v>0</v>
       </c>
       <c r="AK36" s="13">
-        <v>1301</v>
+        <v>230</v>
       </c>
       <c r="AL36" s="13">
-        <v>0</v>
+        <v>1493</v>
       </c>
       <c r="AM36" s="13">
-        <v>0</v>
+        <v>1467</v>
       </c>
       <c r="AN36" s="13">
-        <v>230</v>
+        <v>1632</v>
       </c>
       <c r="AO36" s="13">
-        <v>1493</v>
+        <v>2257</v>
       </c>
       <c r="AP36" s="13">
-        <v>1467</v>
+        <v>1631</v>
       </c>
       <c r="AQ36" s="13">
-        <v>1632</v>
+        <v>639</v>
       </c>
       <c r="AR36" s="13">
-        <v>2257</v>
+        <v>452</v>
       </c>
       <c r="AS36" s="13">
-        <v>1631</v>
+        <v>366</v>
       </c>
       <c r="AT36" s="13">
-        <v>639</v>
+        <v>275</v>
       </c>
       <c r="AU36" s="13">
-        <v>452</v>
+        <v>124</v>
       </c>
       <c r="AV36" s="13">
-        <v>366</v>
+        <v>149</v>
       </c>
       <c r="AW36" s="13">
-        <v>275</v>
+        <v>363</v>
       </c>
       <c r="AX36" s="13">
-        <v>124</v>
+        <v>819</v>
       </c>
       <c r="AY36" s="13">
-        <v>149</v>
+        <v>345</v>
       </c>
       <c r="AZ36" s="13">
-        <v>363</v>
+        <v>505</v>
       </c>
       <c r="BA36" s="13">
-        <v>819</v>
+        <v>599</v>
       </c>
       <c r="BB36" s="13">
-        <v>345</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -4659,8 +4659,8 @@
       <c r="I37" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="J37" s="9" t="s">
-        <v>58</v>
+      <c r="J37" s="9">
+        <v>1190</v>
       </c>
       <c r="K37" s="9" t="s">
         <v>58</v>
@@ -4668,8 +4668,8 @@
       <c r="L37" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M37" s="9">
-        <v>1190</v>
+      <c r="M37" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="N37" s="9" t="s">
         <v>58</v>
@@ -4833,65 +4833,65 @@
       <c r="N38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="O38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="P38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q38" s="13" t="s">
-        <v>58</v>
+      <c r="O38" s="13">
+        <v>0</v>
+      </c>
+      <c r="P38" s="13">
+        <v>279</v>
+      </c>
+      <c r="Q38" s="13">
+        <v>952</v>
       </c>
       <c r="R38" s="13">
-        <v>0</v>
+        <v>1352</v>
       </c>
       <c r="S38" s="13">
-        <v>279</v>
+        <v>2728</v>
       </c>
       <c r="T38" s="13">
-        <v>952</v>
+        <v>499</v>
       </c>
       <c r="U38" s="13">
-        <v>1352</v>
+        <v>580</v>
       </c>
       <c r="V38" s="13">
-        <v>2728</v>
+        <v>1322</v>
       </c>
       <c r="W38" s="13">
-        <v>499</v>
+        <v>1509</v>
       </c>
       <c r="X38" s="13">
-        <v>580</v>
+        <v>2305</v>
       </c>
       <c r="Y38" s="13">
-        <v>1322</v>
+        <v>2088</v>
       </c>
       <c r="Z38" s="13">
-        <v>1509</v>
+        <v>1321</v>
       </c>
       <c r="AA38" s="13">
-        <v>2305</v>
+        <v>1633</v>
       </c>
       <c r="AB38" s="13">
-        <v>2088</v>
+        <v>1773</v>
       </c>
       <c r="AC38" s="13">
-        <v>1321</v>
-      </c>
-      <c r="AD38" s="13">
-        <v>1633</v>
-      </c>
-      <c r="AE38" s="13">
-        <v>1773</v>
-      </c>
-      <c r="AF38" s="13">
         <v>1589</v>
       </c>
+      <c r="AD38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF38" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AG38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH38" s="13" t="s">
-        <v>58</v>
+      <c r="AH38" s="13">
+        <v>0</v>
       </c>
       <c r="AI38" s="13" t="s">
         <v>58</v>
@@ -4899,8 +4899,8 @@
       <c r="AJ38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK38" s="13">
-        <v>0</v>
+      <c r="AK38" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AL38" s="13" t="s">
         <v>58</v>
@@ -4976,139 +4976,139 @@
         <v>0</v>
       </c>
       <c r="J39" s="15">
-        <v>0</v>
+        <v>7733</v>
       </c>
       <c r="K39" s="15">
-        <v>0</v>
+        <v>6938</v>
       </c>
       <c r="L39" s="15">
-        <v>0</v>
+        <v>4687</v>
       </c>
       <c r="M39" s="15">
-        <v>7733</v>
+        <v>5323</v>
       </c>
       <c r="N39" s="15">
-        <v>6938</v>
+        <v>4604</v>
       </c>
       <c r="O39" s="15">
-        <v>4687</v>
+        <v>5669</v>
       </c>
       <c r="P39" s="15">
-        <v>5323</v>
+        <v>6148</v>
       </c>
       <c r="Q39" s="15">
-        <v>4604</v>
+        <v>5826</v>
       </c>
       <c r="R39" s="15">
-        <v>5669</v>
+        <v>6933</v>
       </c>
       <c r="S39" s="15">
-        <v>6148</v>
+        <v>8854</v>
       </c>
       <c r="T39" s="15">
-        <v>5826</v>
+        <v>6495</v>
       </c>
       <c r="U39" s="15">
-        <v>6933</v>
+        <v>7139</v>
       </c>
       <c r="V39" s="15">
-        <v>8854</v>
+        <v>6463</v>
       </c>
       <c r="W39" s="15">
-        <v>6495</v>
+        <v>7126</v>
       </c>
       <c r="X39" s="15">
-        <v>7139</v>
+        <v>7673</v>
       </c>
       <c r="Y39" s="15">
-        <v>6463</v>
+        <v>5630</v>
       </c>
       <c r="Z39" s="15">
-        <v>7126</v>
+        <v>4031</v>
       </c>
       <c r="AA39" s="15">
-        <v>7673</v>
+        <v>4902</v>
       </c>
       <c r="AB39" s="15">
-        <v>5630</v>
+        <v>4384</v>
       </c>
       <c r="AC39" s="15">
-        <v>4031</v>
+        <v>3886</v>
       </c>
       <c r="AD39" s="15">
-        <v>4902</v>
+        <v>3884</v>
       </c>
       <c r="AE39" s="15">
-        <v>4384</v>
+        <v>6112</v>
       </c>
       <c r="AF39" s="15">
-        <v>3886</v>
+        <v>10758</v>
       </c>
       <c r="AG39" s="15">
-        <v>3884</v>
+        <v>6106</v>
       </c>
       <c r="AH39" s="15">
-        <v>6112</v>
+        <v>4566</v>
       </c>
       <c r="AI39" s="15">
-        <v>10758</v>
+        <v>1833</v>
       </c>
       <c r="AJ39" s="15">
-        <v>6106</v>
+        <v>2901</v>
       </c>
       <c r="AK39" s="15">
-        <v>4566</v>
+        <v>4647</v>
       </c>
       <c r="AL39" s="15">
-        <v>1833</v>
+        <v>5395</v>
       </c>
       <c r="AM39" s="15">
-        <v>2901</v>
+        <v>6347</v>
       </c>
       <c r="AN39" s="15">
-        <v>4647</v>
+        <v>6092</v>
       </c>
       <c r="AO39" s="15">
-        <v>5395</v>
+        <v>7118</v>
       </c>
       <c r="AP39" s="15">
-        <v>6347</v>
+        <v>4161</v>
       </c>
       <c r="AQ39" s="15">
-        <v>6092</v>
+        <v>2458</v>
       </c>
       <c r="AR39" s="15">
-        <v>7118</v>
+        <v>4105</v>
       </c>
       <c r="AS39" s="15">
-        <v>4161</v>
+        <v>8553</v>
       </c>
       <c r="AT39" s="15">
-        <v>2458</v>
+        <v>11912</v>
       </c>
       <c r="AU39" s="15">
-        <v>4105</v>
+        <v>6935</v>
       </c>
       <c r="AV39" s="15">
-        <v>8553</v>
+        <v>5713</v>
       </c>
       <c r="AW39" s="15">
-        <v>11912</v>
+        <v>4581</v>
       </c>
       <c r="AX39" s="15">
-        <v>6935</v>
+        <v>5259</v>
       </c>
       <c r="AY39" s="15">
-        <v>5713</v>
+        <v>2074</v>
       </c>
       <c r="AZ39" s="15">
-        <v>4581</v>
+        <v>2134</v>
       </c>
       <c r="BA39" s="15">
-        <v>5259</v>
+        <v>2248</v>
       </c>
       <c r="BB39" s="15">
-        <v>2074</v>
+        <v>5186</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -5245,86 +5245,86 @@
       <c r="AA41" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AB41" s="9" t="s">
-        <v>58</v>
+      <c r="AB41" s="9">
+        <v>500</v>
       </c>
       <c r="AC41" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AD41" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE41" s="9">
-        <v>500</v>
-      </c>
-      <c r="AF41" s="9" t="s">
-        <v>58</v>
+      <c r="AD41" s="9">
+        <v>144</v>
+      </c>
+      <c r="AE41" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF41" s="9">
+        <v>1000</v>
       </c>
       <c r="AG41" s="9">
-        <v>144</v>
-      </c>
-      <c r="AH41" s="9" t="s">
-        <v>58</v>
+        <v>300</v>
+      </c>
+      <c r="AH41" s="9">
+        <v>0</v>
       </c>
       <c r="AI41" s="9">
+        <v>200</v>
+      </c>
+      <c r="AJ41" s="9">
         <v>1000</v>
       </c>
-      <c r="AJ41" s="9">
+      <c r="AK41" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM41" s="9">
+        <v>1600</v>
+      </c>
+      <c r="AN41" s="9">
+        <v>1500</v>
+      </c>
+      <c r="AO41" s="9">
+        <v>1800</v>
+      </c>
+      <c r="AP41" s="9">
         <v>300</v>
       </c>
-      <c r="AK41" s="9">
-        <v>0</v>
-      </c>
-      <c r="AL41" s="9">
+      <c r="AQ41" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR41" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS41" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT41" s="9">
+        <v>300</v>
+      </c>
+      <c r="AU41" s="9">
+        <v>700</v>
+      </c>
+      <c r="AV41" s="9">
+        <v>0</v>
+      </c>
+      <c r="AW41" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX41" s="9">
         <v>200</v>
       </c>
-      <c r="AM41" s="9">
+      <c r="AY41" s="9">
         <v>1000</v>
       </c>
-      <c r="AN41" s="9">
-        <v>0</v>
-      </c>
-      <c r="AO41" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP41" s="9">
-        <v>1600</v>
-      </c>
-      <c r="AQ41" s="9">
-        <v>1500</v>
-      </c>
-      <c r="AR41" s="9">
-        <v>1800</v>
-      </c>
-      <c r="AS41" s="9">
-        <v>300</v>
-      </c>
-      <c r="AT41" s="9">
-        <v>0</v>
-      </c>
-      <c r="AU41" s="9">
-        <v>0</v>
-      </c>
-      <c r="AV41" s="9">
-        <v>0</v>
-      </c>
-      <c r="AW41" s="9">
-        <v>300</v>
-      </c>
-      <c r="AX41" s="9">
-        <v>700</v>
-      </c>
-      <c r="AY41" s="9">
-        <v>0</v>
-      </c>
       <c r="AZ41" s="9">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="BA41" s="9">
-        <v>200</v>
+        <v>676</v>
       </c>
       <c r="BB41" s="9">
-        <v>1000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">
@@ -5359,74 +5359,74 @@
       <c r="L42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="M42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="N42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="O42" s="13" t="s">
-        <v>58</v>
+      <c r="M42" s="13">
+        <v>120</v>
+      </c>
+      <c r="N42" s="13">
+        <v>0</v>
+      </c>
+      <c r="O42" s="13">
+        <v>0</v>
       </c>
       <c r="P42" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="13">
+        <v>0</v>
+      </c>
+      <c r="R42" s="13">
+        <v>0</v>
+      </c>
+      <c r="S42" s="13">
+        <v>0</v>
+      </c>
+      <c r="T42" s="13">
+        <v>200</v>
+      </c>
+      <c r="U42" s="13">
+        <v>0</v>
+      </c>
+      <c r="V42" s="13">
+        <v>0</v>
+      </c>
+      <c r="W42" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="X42" s="13">
+        <v>310</v>
+      </c>
+      <c r="Y42" s="13">
+        <v>220</v>
+      </c>
+      <c r="Z42" s="13">
+        <v>220</v>
+      </c>
+      <c r="AA42" s="13">
+        <v>200</v>
+      </c>
+      <c r="AB42" s="13">
+        <v>200</v>
+      </c>
+      <c r="AC42" s="13">
         <v>120</v>
       </c>
-      <c r="Q42" s="13">
-        <v>0</v>
-      </c>
-      <c r="R42" s="13">
-        <v>0</v>
-      </c>
-      <c r="S42" s="13">
-        <v>0</v>
-      </c>
-      <c r="T42" s="13">
-        <v>0</v>
-      </c>
-      <c r="U42" s="13">
-        <v>0</v>
-      </c>
-      <c r="V42" s="13">
-        <v>0</v>
-      </c>
-      <c r="W42" s="13">
-        <v>200</v>
-      </c>
-      <c r="X42" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA42" s="13">
-        <v>310</v>
-      </c>
-      <c r="AB42" s="13">
-        <v>220</v>
-      </c>
-      <c r="AC42" s="13">
-        <v>220</v>
-      </c>
       <c r="AD42" s="13">
-        <v>200</v>
-      </c>
-      <c r="AE42" s="13">
-        <v>200</v>
-      </c>
-      <c r="AF42" s="13">
-        <v>120</v>
+        <v>37</v>
+      </c>
+      <c r="AE42" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF42" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG42" s="13">
-        <v>37</v>
-      </c>
-      <c r="AH42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI42" s="13" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AH42" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="13">
+        <v>0</v>
       </c>
       <c r="AJ42" s="13">
         <v>0</v>
@@ -5517,7 +5517,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="15">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="N43" s="15">
         <v>0</v>
@@ -5526,121 +5526,121 @@
         <v>0</v>
       </c>
       <c r="P43" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="15">
+        <v>0</v>
+      </c>
+      <c r="R43" s="15">
+        <v>0</v>
+      </c>
+      <c r="S43" s="15">
+        <v>0</v>
+      </c>
+      <c r="T43" s="15">
+        <v>200</v>
+      </c>
+      <c r="U43" s="15">
+        <v>0</v>
+      </c>
+      <c r="V43" s="15">
+        <v>0</v>
+      </c>
+      <c r="W43" s="15">
+        <v>0</v>
+      </c>
+      <c r="X43" s="15">
+        <v>310</v>
+      </c>
+      <c r="Y43" s="15">
+        <v>220</v>
+      </c>
+      <c r="Z43" s="15">
+        <v>220</v>
+      </c>
+      <c r="AA43" s="15">
+        <v>200</v>
+      </c>
+      <c r="AB43" s="15">
+        <v>700</v>
+      </c>
+      <c r="AC43" s="15">
         <v>120</v>
       </c>
-      <c r="Q43" s="15">
-        <v>0</v>
-      </c>
-      <c r="R43" s="15">
-        <v>0</v>
-      </c>
-      <c r="S43" s="15">
-        <v>0</v>
-      </c>
-      <c r="T43" s="15">
-        <v>0</v>
-      </c>
-      <c r="U43" s="15">
-        <v>0</v>
-      </c>
-      <c r="V43" s="15">
-        <v>0</v>
-      </c>
-      <c r="W43" s="15">
+      <c r="AD43" s="15">
+        <v>181</v>
+      </c>
+      <c r="AE43" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="15">
+        <v>1000</v>
+      </c>
+      <c r="AG43" s="15">
+        <v>300</v>
+      </c>
+      <c r="AH43" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="15">
         <v>200</v>
       </c>
-      <c r="X43" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="15">
-        <v>310</v>
-      </c>
-      <c r="AB43" s="15">
-        <v>220</v>
-      </c>
-      <c r="AC43" s="15">
-        <v>220</v>
-      </c>
-      <c r="AD43" s="15">
+      <c r="AJ43" s="15">
+        <v>1000</v>
+      </c>
+      <c r="AK43" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL43" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM43" s="15">
+        <v>1600</v>
+      </c>
+      <c r="AN43" s="15">
+        <v>1500</v>
+      </c>
+      <c r="AO43" s="15">
+        <v>1800</v>
+      </c>
+      <c r="AP43" s="15">
+        <v>300</v>
+      </c>
+      <c r="AQ43" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR43" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS43" s="15">
+        <v>0</v>
+      </c>
+      <c r="AT43" s="15">
+        <v>300</v>
+      </c>
+      <c r="AU43" s="15">
+        <v>700</v>
+      </c>
+      <c r="AV43" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW43" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX43" s="15">
         <v>200</v>
       </c>
-      <c r="AE43" s="15">
-        <v>700</v>
-      </c>
-      <c r="AF43" s="15">
-        <v>120</v>
-      </c>
-      <c r="AG43" s="15">
-        <v>181</v>
-      </c>
-      <c r="AH43" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI43" s="15">
+      <c r="AY43" s="15">
         <v>1000</v>
       </c>
-      <c r="AJ43" s="15">
-        <v>300</v>
-      </c>
-      <c r="AK43" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL43" s="15">
-        <v>200</v>
-      </c>
-      <c r="AM43" s="15">
-        <v>1000</v>
-      </c>
-      <c r="AN43" s="15">
-        <v>0</v>
-      </c>
-      <c r="AO43" s="15">
-        <v>0</v>
-      </c>
-      <c r="AP43" s="15">
-        <v>1600</v>
-      </c>
-      <c r="AQ43" s="15">
-        <v>1500</v>
-      </c>
-      <c r="AR43" s="15">
-        <v>1800</v>
-      </c>
-      <c r="AS43" s="15">
-        <v>300</v>
-      </c>
-      <c r="AT43" s="15">
-        <v>0</v>
-      </c>
-      <c r="AU43" s="15">
-        <v>0</v>
-      </c>
-      <c r="AV43" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW43" s="15">
-        <v>300</v>
-      </c>
-      <c r="AX43" s="15">
-        <v>700</v>
-      </c>
-      <c r="AY43" s="15">
-        <v>0</v>
-      </c>
       <c r="AZ43" s="15">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="BA43" s="15">
-        <v>200</v>
+        <v>676</v>
       </c>
       <c r="BB43" s="15">
-        <v>1000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.3">
@@ -5970,8 +5970,8 @@
       <c r="T47" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="U47" s="9" t="s">
-        <v>58</v>
+      <c r="U47" s="9">
+        <v>-1600</v>
       </c>
       <c r="V47" s="9" t="s">
         <v>58</v>
@@ -5979,8 +5979,8 @@
       <c r="W47" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="X47" s="9">
-        <v>-1600</v>
+      <c r="X47" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="Y47" s="9" t="s">
         <v>58</v>
@@ -6006,8 +6006,8 @@
       <c r="AF47" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AG47" s="9" t="s">
-        <v>58</v>
+      <c r="AG47" s="9">
+        <v>-2075</v>
       </c>
       <c r="AH47" s="9" t="s">
         <v>58</v>
@@ -6015,47 +6015,47 @@
       <c r="AI47" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AJ47" s="9">
-        <v>-2075</v>
+      <c r="AJ47" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="AK47" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AL47" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM47" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN47" s="9" t="s">
-        <v>58</v>
+      <c r="AL47" s="9">
+        <v>-400</v>
+      </c>
+      <c r="AM47" s="9">
+        <v>-275</v>
+      </c>
+      <c r="AN47" s="9">
+        <v>-500</v>
       </c>
       <c r="AO47" s="9">
-        <v>-400</v>
-      </c>
-      <c r="AP47" s="9">
-        <v>-275</v>
-      </c>
-      <c r="AQ47" s="9">
-        <v>-500</v>
-      </c>
-      <c r="AR47" s="9">
         <v>-200</v>
       </c>
-      <c r="AS47" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT47" s="9" t="s">
-        <v>58</v>
+      <c r="AP47" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ47" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR47" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS47" s="9">
+        <v>-2925</v>
+      </c>
+      <c r="AT47" s="9">
+        <v>-200</v>
       </c>
       <c r="AU47" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AV47" s="9">
-        <v>-2925</v>
-      </c>
-      <c r="AW47" s="9">
-        <v>-200</v>
+      <c r="AV47" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW47" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="AX47" s="9" t="s">
         <v>58</v>
@@ -6111,14 +6111,14 @@
       <c r="N48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="O48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="P48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q48" s="13" t="s">
-        <v>58</v>
+      <c r="O48" s="13">
+        <v>0</v>
+      </c>
+      <c r="P48" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="13">
+        <v>0</v>
       </c>
       <c r="R48" s="13">
         <v>0</v>
@@ -6127,19 +6127,19 @@
         <v>0</v>
       </c>
       <c r="T48" s="13">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="U48" s="13">
-        <v>0</v>
-      </c>
-      <c r="V48" s="13">
-        <v>0</v>
-      </c>
-      <c r="W48" s="13">
         <v>-25</v>
       </c>
-      <c r="X48" s="13">
-        <v>-25</v>
+      <c r="V48" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="W48" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="X48" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="Y48" s="13" t="s">
         <v>58</v>
@@ -6156,8 +6156,8 @@
       <c r="AC48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD48" s="13" t="s">
-        <v>58</v>
+      <c r="AD48" s="13">
+        <v>-144</v>
       </c>
       <c r="AE48" s="13" t="s">
         <v>58</v>
@@ -6165,8 +6165,8 @@
       <c r="AF48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG48" s="13">
-        <v>-144</v>
+      <c r="AG48" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH48" s="13" t="s">
         <v>58</v>
@@ -6228,8 +6228,8 @@
       <c r="BA48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BB48" s="13" t="s">
-        <v>58</v>
+      <c r="BB48" s="13">
+        <v>-800</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
@@ -6276,14 +6276,14 @@
       <c r="P49" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="Q49" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="R49" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="S49" s="9" t="s">
-        <v>58</v>
+      <c r="Q49" s="9">
+        <v>0</v>
+      </c>
+      <c r="R49" s="9">
+        <v>0</v>
+      </c>
+      <c r="S49" s="9">
+        <v>0</v>
       </c>
       <c r="T49" s="9">
         <v>0</v>
@@ -6291,14 +6291,14 @@
       <c r="U49" s="9">
         <v>0</v>
       </c>
-      <c r="V49" s="9">
-        <v>0</v>
-      </c>
-      <c r="W49" s="9">
-        <v>0</v>
-      </c>
-      <c r="X49" s="9">
-        <v>0</v>
+      <c r="V49" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W49" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="X49" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="Y49" s="9" t="s">
         <v>58</v>
@@ -6429,35 +6429,35 @@
       <c r="N50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="O50" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="P50" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q50" s="13" t="s">
-        <v>58</v>
+      <c r="O50" s="13">
+        <v>0</v>
+      </c>
+      <c r="P50" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="13">
+        <v>-25</v>
       </c>
       <c r="R50" s="13">
         <v>0</v>
       </c>
       <c r="S50" s="13">
-        <v>0</v>
+        <v>-318</v>
       </c>
       <c r="T50" s="13">
-        <v>-25</v>
+        <v>-48</v>
       </c>
       <c r="U50" s="13">
         <v>0</v>
       </c>
-      <c r="V50" s="13">
-        <v>-318</v>
-      </c>
-      <c r="W50" s="13">
-        <v>-48</v>
-      </c>
-      <c r="X50" s="13">
-        <v>0</v>
+      <c r="V50" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="W50" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="X50" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="Y50" s="13" t="s">
         <v>58</v>
@@ -6468,8 +6468,8 @@
       <c r="AA50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB50" s="13" t="s">
-        <v>58</v>
+      <c r="AB50" s="13">
+        <v>-149</v>
       </c>
       <c r="AC50" s="13" t="s">
         <v>58</v>
@@ -6477,8 +6477,8 @@
       <c r="AD50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE50" s="13">
-        <v>-149</v>
+      <c r="AE50" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF50" s="13" t="s">
         <v>58</v>
@@ -6504,14 +6504,14 @@
       <c r="AM50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN50" s="13" t="s">
-        <v>58</v>
+      <c r="AN50" s="13">
+        <v>-27</v>
       </c>
       <c r="AO50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP50" s="13" t="s">
-        <v>58</v>
+      <c r="AP50" s="13">
+        <v>-26</v>
       </c>
       <c r="AQ50" s="13">
         <v>-27</v>
@@ -6519,32 +6519,32 @@
       <c r="AR50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS50" s="13">
+      <c r="AS50" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT50" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU50" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV50" s="13">
         <v>-26</v>
       </c>
-      <c r="AT50" s="13">
-        <v>-27</v>
-      </c>
-      <c r="AU50" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV50" s="13" t="s">
-        <v>58</v>
-      </c>
       <c r="AW50" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AX50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY50" s="13">
-        <v>-26</v>
+      <c r="AY50" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BA50" s="13" t="s">
-        <v>58</v>
+      <c r="BA50" s="13">
+        <v>-80</v>
       </c>
       <c r="BB50" s="13" t="s">
         <v>58</v>
@@ -6672,23 +6672,23 @@
       <c r="AP51" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AQ51" s="9" t="s">
-        <v>58</v>
+      <c r="AQ51" s="9">
+        <v>-200</v>
       </c>
       <c r="AR51" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AS51" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT51" s="9">
-        <v>-200</v>
+      <c r="AS51" s="9">
+        <v>-775</v>
+      </c>
+      <c r="AT51" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="AU51" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AV51" s="9">
-        <v>-775</v>
+      <c r="AV51" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="AW51" s="9" t="s">
         <v>58</v>
@@ -6762,20 +6762,20 @@
       <c r="S52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="U52" s="13" t="s">
-        <v>58</v>
+      <c r="T52" s="13">
+        <v>-114</v>
+      </c>
+      <c r="U52" s="13">
+        <v>0</v>
       </c>
       <c r="V52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W52" s="13">
-        <v>-114</v>
-      </c>
-      <c r="X52" s="13">
-        <v>0</v>
+      <c r="W52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="X52" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="Y52" s="13" t="s">
         <v>58</v>
@@ -6911,28 +6911,28 @@
         <v>0</v>
       </c>
       <c r="Q53" s="15">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="R53" s="15">
         <v>0</v>
       </c>
       <c r="S53" s="15">
-        <v>0</v>
+        <v>-318</v>
       </c>
       <c r="T53" s="15">
-        <v>-25</v>
+        <v>-187</v>
       </c>
       <c r="U53" s="15">
-        <v>0</v>
+        <v>-1625</v>
       </c>
       <c r="V53" s="15">
-        <v>-318</v>
+        <v>0</v>
       </c>
       <c r="W53" s="15">
-        <v>-187</v>
+        <v>0</v>
       </c>
       <c r="X53" s="15">
-        <v>-1625</v>
+        <v>0</v>
       </c>
       <c r="Y53" s="15">
         <v>0</v>
@@ -6944,22 +6944,22 @@
         <v>0</v>
       </c>
       <c r="AB53" s="15">
-        <v>0</v>
+        <v>-149</v>
       </c>
       <c r="AC53" s="15">
         <v>0</v>
       </c>
       <c r="AD53" s="15">
-        <v>0</v>
+        <v>-144</v>
       </c>
       <c r="AE53" s="15">
-        <v>-149</v>
+        <v>0</v>
       </c>
       <c r="AF53" s="15">
         <v>0</v>
       </c>
       <c r="AG53" s="15">
-        <v>-144</v>
+        <v>-2075</v>
       </c>
       <c r="AH53" s="15">
         <v>0</v>
@@ -6968,61 +6968,61 @@
         <v>0</v>
       </c>
       <c r="AJ53" s="15">
-        <v>-2075</v>
+        <v>0</v>
       </c>
       <c r="AK53" s="15">
         <v>0</v>
       </c>
       <c r="AL53" s="15">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="AM53" s="15">
-        <v>0</v>
+        <v>-275</v>
       </c>
       <c r="AN53" s="15">
-        <v>0</v>
+        <v>-527</v>
       </c>
       <c r="AO53" s="15">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="AP53" s="15">
-        <v>-275</v>
+        <v>-26</v>
       </c>
       <c r="AQ53" s="15">
-        <v>-527</v>
+        <v>-227</v>
       </c>
       <c r="AR53" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS53" s="15">
+        <v>-3700</v>
+      </c>
+      <c r="AT53" s="15">
         <v>-200</v>
       </c>
-      <c r="AS53" s="15">
+      <c r="AU53" s="15">
+        <v>0</v>
+      </c>
+      <c r="AV53" s="15">
         <v>-26</v>
       </c>
-      <c r="AT53" s="15">
-        <v>-227</v>
-      </c>
-      <c r="AU53" s="15">
-        <v>0</v>
-      </c>
-      <c r="AV53" s="15">
-        <v>-3700</v>
-      </c>
       <c r="AW53" s="15">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="AX53" s="15">
         <v>0</v>
       </c>
       <c r="AY53" s="15">
-        <v>-26</v>
+        <v>0</v>
       </c>
       <c r="AZ53" s="15">
         <v>0</v>
       </c>
       <c r="BA53" s="15">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="BB53" s="15">
-        <v>0</v>
+        <v>-800</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.3">
@@ -7047,139 +7047,139 @@
         <v>0</v>
       </c>
       <c r="J54" s="19">
-        <v>0</v>
+        <v>7733</v>
       </c>
       <c r="K54" s="19">
-        <v>0</v>
+        <v>6938</v>
       </c>
       <c r="L54" s="19">
-        <v>0</v>
+        <v>4687</v>
       </c>
       <c r="M54" s="19">
-        <v>7733</v>
+        <v>5443</v>
       </c>
       <c r="N54" s="19">
-        <v>6938</v>
+        <v>4604</v>
       </c>
       <c r="O54" s="19">
-        <v>4687</v>
+        <v>5669</v>
       </c>
       <c r="P54" s="19">
-        <v>5443</v>
+        <v>6148</v>
       </c>
       <c r="Q54" s="19">
-        <v>4604</v>
+        <v>5801</v>
       </c>
       <c r="R54" s="19">
-        <v>5669</v>
+        <v>6933</v>
       </c>
       <c r="S54" s="19">
-        <v>6148</v>
+        <v>8536</v>
       </c>
       <c r="T54" s="19">
-        <v>5801</v>
+        <v>6508</v>
       </c>
       <c r="U54" s="19">
-        <v>6933</v>
+        <v>5514</v>
       </c>
       <c r="V54" s="19">
-        <v>8536</v>
+        <v>6463</v>
       </c>
       <c r="W54" s="19">
-        <v>6508</v>
+        <v>7126</v>
       </c>
       <c r="X54" s="19">
-        <v>5514</v>
+        <v>7983</v>
       </c>
       <c r="Y54" s="19">
-        <v>6463</v>
+        <v>5850</v>
       </c>
       <c r="Z54" s="19">
-        <v>7126</v>
+        <v>4251</v>
       </c>
       <c r="AA54" s="19">
-        <v>7983</v>
+        <v>5102</v>
       </c>
       <c r="AB54" s="19">
-        <v>5850</v>
+        <v>4935</v>
       </c>
       <c r="AC54" s="19">
-        <v>4251</v>
+        <v>4006</v>
       </c>
       <c r="AD54" s="19">
-        <v>5102</v>
+        <v>3921</v>
       </c>
       <c r="AE54" s="19">
-        <v>4935</v>
+        <v>6112</v>
       </c>
       <c r="AF54" s="19">
-        <v>4006</v>
+        <v>11758</v>
       </c>
       <c r="AG54" s="19">
-        <v>3921</v>
+        <v>4331</v>
       </c>
       <c r="AH54" s="19">
-        <v>6112</v>
+        <v>4566</v>
       </c>
       <c r="AI54" s="19">
-        <v>11758</v>
+        <v>2033</v>
       </c>
       <c r="AJ54" s="19">
-        <v>4331</v>
+        <v>3901</v>
       </c>
       <c r="AK54" s="19">
-        <v>4566</v>
+        <v>4647</v>
       </c>
       <c r="AL54" s="19">
-        <v>2033</v>
+        <v>4995</v>
       </c>
       <c r="AM54" s="19">
-        <v>3901</v>
+        <v>7672</v>
       </c>
       <c r="AN54" s="19">
-        <v>4647</v>
+        <v>7065</v>
       </c>
       <c r="AO54" s="19">
-        <v>4995</v>
+        <v>8718</v>
       </c>
       <c r="AP54" s="19">
-        <v>7672</v>
+        <v>4435</v>
       </c>
       <c r="AQ54" s="19">
-        <v>7065</v>
+        <v>2231</v>
       </c>
       <c r="AR54" s="19">
-        <v>8718</v>
+        <v>4105</v>
       </c>
       <c r="AS54" s="19">
-        <v>4435</v>
+        <v>4853</v>
       </c>
       <c r="AT54" s="19">
-        <v>2231</v>
+        <v>12012</v>
       </c>
       <c r="AU54" s="19">
-        <v>4105</v>
+        <v>7635</v>
       </c>
       <c r="AV54" s="19">
-        <v>4853</v>
+        <v>5687</v>
       </c>
       <c r="AW54" s="19">
-        <v>12012</v>
+        <v>4581</v>
       </c>
       <c r="AX54" s="19">
-        <v>7635</v>
+        <v>5459</v>
       </c>
       <c r="AY54" s="19">
-        <v>5687</v>
+        <v>3074</v>
       </c>
       <c r="AZ54" s="19">
-        <v>4581</v>
+        <v>2258</v>
       </c>
       <c r="BA54" s="19">
-        <v>5459</v>
+        <v>2844</v>
       </c>
       <c r="BB54" s="19">
-        <v>3074</v>
+        <v>5586</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.3">
@@ -7709,125 +7709,125 @@
       <c r="N62" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="O62" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P62" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q62" s="9" t="s">
-        <v>58</v>
+      <c r="O62" s="9">
+        <v>0</v>
+      </c>
+      <c r="P62" s="9">
+        <v>5239</v>
+      </c>
+      <c r="Q62" s="9">
+        <v>13157</v>
       </c>
       <c r="R62" s="9">
-        <v>0</v>
+        <v>18276</v>
       </c>
       <c r="S62" s="9">
-        <v>5239</v>
+        <v>34863</v>
       </c>
       <c r="T62" s="9">
-        <v>13157</v>
+        <v>60030</v>
       </c>
       <c r="U62" s="9">
-        <v>18276</v>
+        <v>239652</v>
       </c>
       <c r="V62" s="9">
-        <v>34863</v>
+        <v>83929</v>
       </c>
       <c r="W62" s="9">
-        <v>60030</v>
+        <v>233910</v>
       </c>
       <c r="X62" s="9">
-        <v>239652</v>
+        <v>219787</v>
       </c>
       <c r="Y62" s="9">
-        <v>83929</v>
+        <v>30166</v>
       </c>
       <c r="Z62" s="9">
-        <v>233910</v>
+        <v>5612</v>
       </c>
       <c r="AA62" s="9">
-        <v>219787</v>
+        <v>13198</v>
       </c>
       <c r="AB62" s="9">
-        <v>30166</v>
+        <v>6235</v>
       </c>
       <c r="AC62" s="9">
-        <v>5612</v>
+        <v>11298</v>
       </c>
       <c r="AD62" s="9">
-        <v>13198</v>
+        <v>104807</v>
       </c>
       <c r="AE62" s="9">
-        <v>6235</v>
+        <v>515864</v>
       </c>
       <c r="AF62" s="9">
-        <v>11298</v>
+        <v>1151607</v>
       </c>
       <c r="AG62" s="9">
-        <v>104807</v>
+        <v>156823</v>
       </c>
       <c r="AH62" s="9">
-        <v>515864</v>
+        <v>238022</v>
       </c>
       <c r="AI62" s="9">
-        <v>1151607</v>
+        <v>107514</v>
       </c>
       <c r="AJ62" s="9">
-        <v>156823</v>
+        <v>186825</v>
       </c>
       <c r="AK62" s="9">
-        <v>238022</v>
+        <v>744732</v>
       </c>
       <c r="AL62" s="9">
-        <v>107514</v>
+        <v>336444</v>
       </c>
       <c r="AM62" s="9">
-        <v>186825</v>
+        <v>619951</v>
       </c>
       <c r="AN62" s="9">
-        <v>744732</v>
+        <v>585982</v>
       </c>
       <c r="AO62" s="9">
-        <v>336444</v>
+        <v>1050909</v>
       </c>
       <c r="AP62" s="9">
-        <v>619951</v>
+        <v>466490</v>
       </c>
       <c r="AQ62" s="9">
-        <v>585982</v>
+        <v>8746</v>
       </c>
       <c r="AR62" s="9">
-        <v>1050909</v>
+        <v>218031</v>
       </c>
       <c r="AS62" s="9">
-        <v>466490</v>
+        <v>1423387</v>
       </c>
       <c r="AT62" s="9">
-        <v>8746</v>
+        <v>2521817</v>
       </c>
       <c r="AU62" s="9">
-        <v>218031</v>
+        <v>1712970</v>
       </c>
       <c r="AV62" s="9">
-        <v>1423387</v>
+        <v>1064144</v>
       </c>
       <c r="AW62" s="9">
-        <v>2521817</v>
+        <v>943784</v>
       </c>
       <c r="AX62" s="9">
-        <v>1712970</v>
+        <v>1097669</v>
       </c>
       <c r="AY62" s="9">
-        <v>1064144</v>
+        <v>256437</v>
       </c>
       <c r="AZ62" s="9">
-        <v>943784</v>
+        <v>256493</v>
       </c>
       <c r="BA62" s="9">
-        <v>1097669</v>
+        <v>277222</v>
       </c>
       <c r="BB62" s="9">
-        <v>256437</v>
+        <v>971835</v>
       </c>
     </row>
     <row r="63" spans="2:54" x14ac:dyDescent="0.3">
@@ -7853,140 +7853,140 @@
       <c r="I63" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="J63" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="K63" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L63" s="13" t="s">
-        <v>58</v>
+      <c r="J63" s="13">
+        <v>100219</v>
+      </c>
+      <c r="K63" s="13">
+        <v>82583</v>
+      </c>
+      <c r="L63" s="13">
+        <v>59499</v>
       </c>
       <c r="M63" s="13">
-        <v>100219</v>
+        <v>65367</v>
       </c>
       <c r="N63" s="13">
-        <v>82583</v>
+        <v>54324</v>
       </c>
       <c r="O63" s="13">
-        <v>59499</v>
+        <v>67641</v>
       </c>
       <c r="P63" s="13">
-        <v>65367</v>
+        <v>74397</v>
       </c>
       <c r="Q63" s="13">
-        <v>54324</v>
+        <v>76887</v>
       </c>
       <c r="R63" s="13">
-        <v>67641</v>
+        <v>97533</v>
       </c>
       <c r="S63" s="13">
-        <v>74397</v>
+        <v>119980</v>
       </c>
       <c r="T63" s="13">
-        <v>76887</v>
+        <v>129361</v>
       </c>
       <c r="U63" s="13">
-        <v>97533</v>
+        <v>106228</v>
       </c>
       <c r="V63" s="13">
-        <v>119980</v>
+        <v>103229</v>
       </c>
       <c r="W63" s="13">
-        <v>129361</v>
+        <v>80920</v>
       </c>
       <c r="X63" s="13">
-        <v>106228</v>
+        <v>81889</v>
       </c>
       <c r="Y63" s="13">
-        <v>103229</v>
+        <v>69652</v>
       </c>
       <c r="Z63" s="13">
-        <v>80920</v>
+        <v>64515</v>
       </c>
       <c r="AA63" s="13">
-        <v>81889</v>
+        <v>71519</v>
       </c>
       <c r="AB63" s="13">
-        <v>69652</v>
+        <v>42211</v>
       </c>
       <c r="AC63" s="13">
-        <v>64515</v>
+        <v>31711</v>
       </c>
       <c r="AD63" s="13">
-        <v>71519</v>
+        <v>89461</v>
       </c>
       <c r="AE63" s="13">
-        <v>42211</v>
+        <v>101563</v>
       </c>
       <c r="AF63" s="13">
-        <v>31711</v>
+        <v>130542</v>
       </c>
       <c r="AG63" s="13">
-        <v>89461</v>
+        <v>215800</v>
       </c>
       <c r="AH63" s="13">
-        <v>101563</v>
+        <v>109782</v>
       </c>
       <c r="AI63" s="13">
-        <v>130542</v>
+        <v>86176</v>
       </c>
       <c r="AJ63" s="13">
-        <v>215800</v>
+        <v>162997</v>
       </c>
       <c r="AK63" s="13">
-        <v>109782</v>
+        <v>169776</v>
       </c>
       <c r="AL63" s="13">
-        <v>86176</v>
+        <v>247611</v>
       </c>
       <c r="AM63" s="13">
-        <v>162997</v>
+        <v>247774</v>
       </c>
       <c r="AN63" s="13">
-        <v>169776</v>
+        <v>174812</v>
       </c>
       <c r="AO63" s="13">
-        <v>247611</v>
+        <v>98546</v>
       </c>
       <c r="AP63" s="13">
-        <v>247774</v>
+        <v>73508</v>
       </c>
       <c r="AQ63" s="13">
-        <v>174812</v>
+        <v>125432</v>
       </c>
       <c r="AR63" s="13">
-        <v>98546</v>
+        <v>330335</v>
       </c>
       <c r="AS63" s="13">
-        <v>73508</v>
+        <v>507609</v>
       </c>
       <c r="AT63" s="13">
-        <v>125432</v>
+        <v>659232</v>
       </c>
       <c r="AU63" s="13">
-        <v>330335</v>
+        <v>310925</v>
       </c>
       <c r="AV63" s="13">
-        <v>507609</v>
+        <v>322480</v>
       </c>
       <c r="AW63" s="13">
-        <v>659232</v>
+        <v>178102</v>
       </c>
       <c r="AX63" s="13">
-        <v>310925</v>
+        <v>153186</v>
       </c>
       <c r="AY63" s="13">
-        <v>322480</v>
+        <v>92530</v>
       </c>
       <c r="AZ63" s="13">
-        <v>178102</v>
+        <v>101608</v>
       </c>
       <c r="BA63" s="13">
-        <v>153186</v>
+        <v>94956</v>
       </c>
       <c r="BB63" s="13">
-        <v>92530</v>
+        <v>230452</v>
       </c>
     </row>
     <row r="64" spans="2:54" x14ac:dyDescent="0.3">
@@ -8012,140 +8012,140 @@
       <c r="I64" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="J64" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K64" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="L64" s="9" t="s">
-        <v>58</v>
+      <c r="J64" s="9">
+        <v>38598</v>
+      </c>
+      <c r="K64" s="9">
+        <v>56042</v>
+      </c>
+      <c r="L64" s="9">
+        <v>36111</v>
       </c>
       <c r="M64" s="9">
-        <v>38598</v>
+        <v>58677</v>
       </c>
       <c r="N64" s="9">
-        <v>56042</v>
+        <v>62288</v>
       </c>
       <c r="O64" s="9">
-        <v>36111</v>
+        <v>64612</v>
       </c>
       <c r="P64" s="9">
-        <v>58677</v>
+        <v>50622</v>
       </c>
       <c r="Q64" s="9">
-        <v>62288</v>
+        <v>66053</v>
       </c>
       <c r="R64" s="9">
-        <v>64612</v>
+        <v>75144</v>
       </c>
       <c r="S64" s="9">
-        <v>50622</v>
+        <v>124979</v>
       </c>
       <c r="T64" s="9">
-        <v>66053</v>
+        <v>101080</v>
       </c>
       <c r="U64" s="9">
-        <v>75144</v>
+        <v>82159</v>
       </c>
       <c r="V64" s="9">
-        <v>124979</v>
+        <v>37452</v>
       </c>
       <c r="W64" s="9">
-        <v>101080</v>
+        <v>72143</v>
       </c>
       <c r="X64" s="9">
-        <v>82159</v>
+        <v>35353</v>
       </c>
       <c r="Y64" s="9">
-        <v>37452</v>
+        <v>55102</v>
       </c>
       <c r="Z64" s="9">
-        <v>72143</v>
+        <v>52013</v>
       </c>
       <c r="AA64" s="9">
-        <v>35353</v>
+        <v>121395</v>
       </c>
       <c r="AB64" s="9">
-        <v>55102</v>
+        <v>70547</v>
       </c>
       <c r="AC64" s="9">
-        <v>52013</v>
+        <v>168266</v>
       </c>
       <c r="AD64" s="9">
-        <v>121395</v>
+        <v>257884</v>
       </c>
       <c r="AE64" s="9">
-        <v>70547</v>
+        <v>209950</v>
       </c>
       <c r="AF64" s="9">
-        <v>168266</v>
+        <v>161399</v>
       </c>
       <c r="AG64" s="9">
-        <v>257884</v>
+        <v>134344</v>
       </c>
       <c r="AH64" s="9">
-        <v>209950</v>
+        <v>84642</v>
       </c>
       <c r="AI64" s="9">
-        <v>161399</v>
+        <v>69146</v>
       </c>
       <c r="AJ64" s="9">
-        <v>134344</v>
+        <v>183410</v>
       </c>
       <c r="AK64" s="9">
-        <v>84642</v>
+        <v>51193</v>
       </c>
       <c r="AL64" s="9">
-        <v>69146</v>
+        <v>78827</v>
       </c>
       <c r="AM64" s="9">
-        <v>183410</v>
+        <v>119386</v>
       </c>
       <c r="AN64" s="9">
-        <v>51193</v>
+        <v>342366</v>
       </c>
       <c r="AO64" s="9">
-        <v>78827</v>
+        <v>240619</v>
       </c>
       <c r="AP64" s="9">
-        <v>119386</v>
+        <v>101470</v>
       </c>
       <c r="AQ64" s="9">
-        <v>342366</v>
+        <v>313911</v>
       </c>
       <c r="AR64" s="9">
-        <v>240619</v>
+        <v>256490</v>
       </c>
       <c r="AS64" s="9">
-        <v>101470</v>
+        <v>254743</v>
       </c>
       <c r="AT64" s="9">
-        <v>313911</v>
+        <v>135438</v>
       </c>
       <c r="AU64" s="9">
-        <v>256490</v>
+        <v>0</v>
       </c>
       <c r="AV64" s="9">
-        <v>254743</v>
+        <v>96199</v>
       </c>
       <c r="AW64" s="9">
-        <v>135438</v>
+        <v>134606</v>
       </c>
       <c r="AX64" s="9">
-        <v>0</v>
+        <v>142410</v>
       </c>
       <c r="AY64" s="9">
-        <v>96199</v>
+        <v>81010</v>
       </c>
       <c r="AZ64" s="9">
-        <v>134606</v>
+        <v>1351</v>
       </c>
       <c r="BA64" s="9">
-        <v>142410</v>
+        <v>24793</v>
       </c>
       <c r="BB64" s="9">
-        <v>81010</v>
+        <v>126094</v>
       </c>
     </row>
     <row r="65" spans="2:54" x14ac:dyDescent="0.3">
@@ -8171,140 +8171,140 @@
       <c r="I65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="J65" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="K65" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L65" s="13" t="s">
-        <v>58</v>
+      <c r="J65" s="13">
+        <v>6474</v>
+      </c>
+      <c r="K65" s="13">
+        <v>9434</v>
+      </c>
+      <c r="L65" s="13">
+        <v>4854</v>
       </c>
       <c r="M65" s="13">
-        <v>6474</v>
+        <v>7824</v>
       </c>
       <c r="N65" s="13">
-        <v>9434</v>
+        <v>7122</v>
       </c>
       <c r="O65" s="13">
-        <v>4854</v>
+        <v>11427</v>
       </c>
       <c r="P65" s="13">
-        <v>7824</v>
+        <v>17359</v>
       </c>
       <c r="Q65" s="13">
-        <v>7122</v>
+        <v>16399</v>
       </c>
       <c r="R65" s="13">
-        <v>11427</v>
+        <v>17367</v>
       </c>
       <c r="S65" s="13">
-        <v>17359</v>
+        <v>12271</v>
       </c>
       <c r="T65" s="13">
-        <v>16399</v>
+        <v>12580</v>
       </c>
       <c r="U65" s="13">
-        <v>17367</v>
+        <v>15739</v>
       </c>
       <c r="V65" s="13">
-        <v>12271</v>
+        <v>18244</v>
       </c>
       <c r="W65" s="13">
-        <v>12580</v>
+        <v>21651</v>
       </c>
       <c r="X65" s="13">
-        <v>15739</v>
+        <v>24546</v>
       </c>
       <c r="Y65" s="13">
-        <v>18244</v>
+        <v>24844</v>
       </c>
       <c r="Z65" s="13">
-        <v>21651</v>
+        <v>15614</v>
       </c>
       <c r="AA65" s="13">
-        <v>24546</v>
+        <v>23125</v>
       </c>
       <c r="AB65" s="13">
-        <v>24844</v>
+        <v>26695</v>
       </c>
       <c r="AC65" s="13">
-        <v>15614</v>
+        <v>24321</v>
       </c>
       <c r="AD65" s="13">
-        <v>23125</v>
+        <v>24615</v>
       </c>
       <c r="AE65" s="13">
-        <v>26695</v>
+        <v>18461</v>
       </c>
       <c r="AF65" s="13">
-        <v>24321</v>
+        <v>21932</v>
       </c>
       <c r="AG65" s="13">
-        <v>24615</v>
+        <v>36088</v>
       </c>
       <c r="AH65" s="13">
-        <v>18461</v>
+        <v>40059</v>
       </c>
       <c r="AI65" s="13">
-        <v>21932</v>
+        <v>0</v>
       </c>
       <c r="AJ65" s="13">
-        <v>36088</v>
+        <v>0</v>
       </c>
       <c r="AK65" s="13">
-        <v>40059</v>
+        <v>9689</v>
       </c>
       <c r="AL65" s="13">
-        <v>0</v>
+        <v>63324</v>
       </c>
       <c r="AM65" s="13">
-        <v>0</v>
+        <v>45775</v>
       </c>
       <c r="AN65" s="13">
-        <v>9689</v>
+        <v>55190</v>
       </c>
       <c r="AO65" s="13">
-        <v>63324</v>
+        <v>80944</v>
       </c>
       <c r="AP65" s="13">
-        <v>45775</v>
+        <v>57852</v>
       </c>
       <c r="AQ65" s="13">
-        <v>55190</v>
+        <v>23647</v>
       </c>
       <c r="AR65" s="13">
-        <v>80944</v>
+        <v>15771</v>
       </c>
       <c r="AS65" s="13">
-        <v>57852</v>
+        <v>12479</v>
       </c>
       <c r="AT65" s="13">
-        <v>23647</v>
+        <v>9869</v>
       </c>
       <c r="AU65" s="13">
-        <v>15771</v>
+        <v>3925</v>
       </c>
       <c r="AV65" s="13">
-        <v>12479</v>
+        <v>4792</v>
       </c>
       <c r="AW65" s="13">
-        <v>9869</v>
+        <v>13072</v>
       </c>
       <c r="AX65" s="13">
-        <v>3925</v>
+        <v>9922</v>
       </c>
       <c r="AY65" s="13">
-        <v>4792</v>
+        <v>11068</v>
       </c>
       <c r="AZ65" s="13">
-        <v>13072</v>
+        <v>16531</v>
       </c>
       <c r="BA65" s="13">
-        <v>9922</v>
+        <v>18387</v>
       </c>
       <c r="BB65" s="13">
-        <v>11068</v>
+        <v>8188</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -8345,74 +8345,74 @@
       <c r="N66" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="O66" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P66" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q66" s="9" t="s">
-        <v>58</v>
+      <c r="O66" s="9">
+        <v>0</v>
+      </c>
+      <c r="P66" s="9">
+        <v>165</v>
+      </c>
+      <c r="Q66" s="9">
+        <v>421</v>
       </c>
       <c r="R66" s="9">
-        <v>0</v>
+        <v>495</v>
       </c>
       <c r="S66" s="9">
+        <v>813</v>
+      </c>
+      <c r="T66" s="9">
+        <v>151</v>
+      </c>
+      <c r="U66" s="9">
         <v>165</v>
       </c>
-      <c r="T66" s="9">
-        <v>421</v>
-      </c>
-      <c r="U66" s="9">
-        <v>495</v>
-      </c>
       <c r="V66" s="9">
-        <v>813</v>
+        <v>162</v>
       </c>
       <c r="W66" s="9">
-        <v>151</v>
+        <v>2070</v>
       </c>
       <c r="X66" s="9">
-        <v>165</v>
+        <v>6800</v>
       </c>
       <c r="Y66" s="9">
-        <v>162</v>
+        <v>8199</v>
       </c>
       <c r="Z66" s="9">
-        <v>2070</v>
+        <v>3854</v>
       </c>
       <c r="AA66" s="9">
-        <v>6800</v>
+        <v>2942</v>
       </c>
       <c r="AB66" s="9">
-        <v>8199</v>
+        <v>2116</v>
       </c>
       <c r="AC66" s="9">
-        <v>3854</v>
+        <v>2366</v>
       </c>
       <c r="AD66" s="9">
-        <v>2942</v>
+        <v>0</v>
       </c>
       <c r="AE66" s="9">
-        <v>2116</v>
+        <v>0</v>
       </c>
       <c r="AF66" s="9">
-        <v>2366</v>
-      </c>
-      <c r="AG66" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AG66" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="AH66" s="9">
         <v>0</v>
       </c>
-      <c r="AI66" s="9">
-        <v>0</v>
+      <c r="AI66" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="AJ66" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AK66" s="9">
-        <v>0</v>
+      <c r="AK66" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="AL66" s="9" t="s">
         <v>58</v>
@@ -8488,139 +8488,139 @@
         <v>0</v>
       </c>
       <c r="J67" s="19">
-        <v>0</v>
+        <v>145291</v>
       </c>
       <c r="K67" s="19">
-        <v>0</v>
+        <v>148059</v>
       </c>
       <c r="L67" s="19">
-        <v>0</v>
+        <v>100464</v>
       </c>
       <c r="M67" s="19">
-        <v>145291</v>
+        <v>131868</v>
       </c>
       <c r="N67" s="19">
-        <v>148059</v>
+        <v>123734</v>
       </c>
       <c r="O67" s="19">
-        <v>100464</v>
+        <v>143680</v>
       </c>
       <c r="P67" s="19">
-        <v>131868</v>
+        <v>147782</v>
       </c>
       <c r="Q67" s="19">
-        <v>123734</v>
+        <v>172917</v>
       </c>
       <c r="R67" s="19">
-        <v>143680</v>
+        <v>208815</v>
       </c>
       <c r="S67" s="19">
-        <v>147782</v>
+        <v>292906</v>
       </c>
       <c r="T67" s="19">
-        <v>172917</v>
+        <v>303202</v>
       </c>
       <c r="U67" s="19">
-        <v>208815</v>
+        <v>443943</v>
       </c>
       <c r="V67" s="19">
-        <v>292906</v>
+        <v>243016</v>
       </c>
       <c r="W67" s="19">
-        <v>303202</v>
+        <v>410694</v>
       </c>
       <c r="X67" s="19">
-        <v>443943</v>
+        <v>368375</v>
       </c>
       <c r="Y67" s="19">
-        <v>243016</v>
+        <v>187963</v>
       </c>
       <c r="Z67" s="19">
-        <v>410694</v>
+        <v>141608</v>
       </c>
       <c r="AA67" s="19">
-        <v>368375</v>
+        <v>232179</v>
       </c>
       <c r="AB67" s="19">
-        <v>187963</v>
+        <v>147804</v>
       </c>
       <c r="AC67" s="19">
-        <v>141608</v>
+        <v>237962</v>
       </c>
       <c r="AD67" s="19">
-        <v>232179</v>
+        <v>476767</v>
       </c>
       <c r="AE67" s="19">
-        <v>147804</v>
+        <v>845838</v>
       </c>
       <c r="AF67" s="19">
-        <v>237962</v>
+        <v>1465480</v>
       </c>
       <c r="AG67" s="19">
-        <v>476767</v>
+        <v>543055</v>
       </c>
       <c r="AH67" s="19">
-        <v>845838</v>
+        <v>472505</v>
       </c>
       <c r="AI67" s="19">
-        <v>1465480</v>
+        <v>262836</v>
       </c>
       <c r="AJ67" s="19">
-        <v>543055</v>
+        <v>533232</v>
       </c>
       <c r="AK67" s="19">
-        <v>472505</v>
+        <v>975390</v>
       </c>
       <c r="AL67" s="19">
-        <v>262836</v>
+        <v>726206</v>
       </c>
       <c r="AM67" s="19">
-        <v>533232</v>
+        <v>1032886</v>
       </c>
       <c r="AN67" s="19">
-        <v>975390</v>
+        <v>1158350</v>
       </c>
       <c r="AO67" s="19">
-        <v>726206</v>
+        <v>1471018</v>
       </c>
       <c r="AP67" s="19">
-        <v>1032886</v>
+        <v>699320</v>
       </c>
       <c r="AQ67" s="19">
-        <v>1158350</v>
+        <v>471736</v>
       </c>
       <c r="AR67" s="19">
-        <v>1471018</v>
+        <v>820627</v>
       </c>
       <c r="AS67" s="19">
-        <v>699320</v>
+        <v>2198218</v>
       </c>
       <c r="AT67" s="19">
-        <v>471736</v>
+        <v>3326356</v>
       </c>
       <c r="AU67" s="19">
-        <v>820627</v>
+        <v>2027820</v>
       </c>
       <c r="AV67" s="19">
-        <v>2198218</v>
+        <v>1487615</v>
       </c>
       <c r="AW67" s="19">
-        <v>3326356</v>
+        <v>1269564</v>
       </c>
       <c r="AX67" s="19">
-        <v>2027820</v>
+        <v>1403187</v>
       </c>
       <c r="AY67" s="19">
-        <v>1487615</v>
+        <v>441045</v>
       </c>
       <c r="AZ67" s="19">
-        <v>1269564</v>
+        <v>375983</v>
       </c>
       <c r="BA67" s="19">
-        <v>1403187</v>
+        <v>415358</v>
       </c>
       <c r="BB67" s="19">
-        <v>441045</v>
+        <v>1336569</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.3">
@@ -8757,86 +8757,86 @@
       <c r="AA69" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AB69" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC69" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD69" s="9" t="s">
-        <v>58</v>
+      <c r="AB69" s="9">
+        <v>25515</v>
+      </c>
+      <c r="AC69" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="9">
+        <v>10211</v>
       </c>
       <c r="AE69" s="9">
-        <v>25515</v>
+        <v>0</v>
       </c>
       <c r="AF69" s="9">
-        <v>0</v>
+        <v>53757</v>
       </c>
       <c r="AG69" s="9">
-        <v>10211</v>
+        <v>22245</v>
       </c>
       <c r="AH69" s="9">
         <v>0</v>
       </c>
       <c r="AI69" s="9">
-        <v>53757</v>
+        <v>15345</v>
       </c>
       <c r="AJ69" s="9">
-        <v>22245</v>
+        <v>98204</v>
       </c>
       <c r="AK69" s="9">
         <v>0</v>
       </c>
       <c r="AL69" s="9">
-        <v>15345</v>
+        <v>0</v>
       </c>
       <c r="AM69" s="9">
-        <v>98204</v>
+        <v>165047</v>
       </c>
       <c r="AN69" s="9">
-        <v>0</v>
+        <v>156580</v>
       </c>
       <c r="AO69" s="9">
-        <v>0</v>
+        <v>192205</v>
       </c>
       <c r="AP69" s="9">
-        <v>165047</v>
+        <v>33026</v>
       </c>
       <c r="AQ69" s="9">
-        <v>156580</v>
+        <v>0</v>
       </c>
       <c r="AR69" s="9">
-        <v>192205</v>
+        <v>0</v>
       </c>
       <c r="AS69" s="9">
-        <v>33026</v>
+        <v>0</v>
       </c>
       <c r="AT69" s="9">
-        <v>0</v>
+        <v>38874</v>
       </c>
       <c r="AU69" s="9">
-        <v>0</v>
+        <v>91052</v>
       </c>
       <c r="AV69" s="9">
         <v>0</v>
       </c>
       <c r="AW69" s="9">
-        <v>38874</v>
+        <v>0</v>
       </c>
       <c r="AX69" s="9">
-        <v>91052</v>
+        <v>16538</v>
       </c>
       <c r="AY69" s="9">
-        <v>0</v>
+        <v>86852</v>
       </c>
       <c r="AZ69" s="9">
-        <v>0</v>
+        <v>13714</v>
       </c>
       <c r="BA69" s="9">
-        <v>16538</v>
+        <v>75255</v>
       </c>
       <c r="BB69" s="9">
-        <v>86852</v>
+        <v>125531</v>
       </c>
     </row>
     <row r="70" spans="2:54" x14ac:dyDescent="0.3">
@@ -8871,17 +8871,17 @@
       <c r="L70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="M70" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="N70" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="O70" s="13" t="s">
-        <v>58</v>
+      <c r="M70" s="13">
+        <v>12291</v>
+      </c>
+      <c r="N70" s="13">
+        <v>0</v>
+      </c>
+      <c r="O70" s="13">
+        <v>0</v>
       </c>
       <c r="P70" s="13">
-        <v>12291</v>
+        <v>0</v>
       </c>
       <c r="Q70" s="13">
         <v>0</v>
@@ -8893,7 +8893,7 @@
         <v>0</v>
       </c>
       <c r="T70" s="13">
-        <v>0</v>
+        <v>51056</v>
       </c>
       <c r="U70" s="13">
         <v>0</v>
@@ -8902,37 +8902,37 @@
         <v>0</v>
       </c>
       <c r="W70" s="13">
-        <v>51056</v>
+        <v>0</v>
       </c>
       <c r="X70" s="13">
-        <v>0</v>
+        <v>104761</v>
       </c>
       <c r="Y70" s="13">
-        <v>0</v>
+        <v>80430</v>
       </c>
       <c r="Z70" s="13">
-        <v>0</v>
+        <v>80430</v>
       </c>
       <c r="AA70" s="13">
-        <v>104761</v>
+        <v>92286</v>
       </c>
       <c r="AB70" s="13">
-        <v>80430</v>
+        <v>112732</v>
       </c>
       <c r="AC70" s="13">
-        <v>80430</v>
+        <v>99185</v>
       </c>
       <c r="AD70" s="13">
-        <v>92286</v>
+        <v>30995</v>
       </c>
       <c r="AE70" s="13">
-        <v>112732</v>
+        <v>0</v>
       </c>
       <c r="AF70" s="13">
-        <v>99185</v>
+        <v>0</v>
       </c>
       <c r="AG70" s="13">
-        <v>30995</v>
+        <v>0</v>
       </c>
       <c r="AH70" s="13">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="M71" s="15">
-        <v>0</v>
+        <v>12291</v>
       </c>
       <c r="N71" s="15">
         <v>0</v>
@@ -9038,7 +9038,7 @@
         <v>0</v>
       </c>
       <c r="P71" s="15">
-        <v>12291</v>
+        <v>0</v>
       </c>
       <c r="Q71" s="15">
         <v>0</v>
@@ -9050,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="T71" s="15">
-        <v>0</v>
+        <v>51056</v>
       </c>
       <c r="U71" s="15">
         <v>0</v>
@@ -9059,100 +9059,100 @@
         <v>0</v>
       </c>
       <c r="W71" s="15">
-        <v>51056</v>
+        <v>0</v>
       </c>
       <c r="X71" s="15">
-        <v>0</v>
+        <v>104761</v>
       </c>
       <c r="Y71" s="15">
-        <v>0</v>
+        <v>80430</v>
       </c>
       <c r="Z71" s="15">
-        <v>0</v>
+        <v>80430</v>
       </c>
       <c r="AA71" s="15">
-        <v>104761</v>
+        <v>92286</v>
       </c>
       <c r="AB71" s="15">
-        <v>80430</v>
+        <v>138247</v>
       </c>
       <c r="AC71" s="15">
-        <v>80430</v>
+        <v>99185</v>
       </c>
       <c r="AD71" s="15">
-        <v>92286</v>
+        <v>41206</v>
       </c>
       <c r="AE71" s="15">
-        <v>138247</v>
+        <v>0</v>
       </c>
       <c r="AF71" s="15">
-        <v>99185</v>
+        <v>53757</v>
       </c>
       <c r="AG71" s="15">
-        <v>41206</v>
+        <v>22245</v>
       </c>
       <c r="AH71" s="15">
         <v>0</v>
       </c>
       <c r="AI71" s="15">
-        <v>53757</v>
+        <v>15345</v>
       </c>
       <c r="AJ71" s="15">
-        <v>22245</v>
+        <v>98204</v>
       </c>
       <c r="AK71" s="15">
         <v>0</v>
       </c>
       <c r="AL71" s="15">
-        <v>15345</v>
+        <v>0</v>
       </c>
       <c r="AM71" s="15">
-        <v>98204</v>
+        <v>165047</v>
       </c>
       <c r="AN71" s="15">
-        <v>0</v>
+        <v>156580</v>
       </c>
       <c r="AO71" s="15">
-        <v>0</v>
+        <v>192205</v>
       </c>
       <c r="AP71" s="15">
-        <v>165047</v>
+        <v>33026</v>
       </c>
       <c r="AQ71" s="15">
-        <v>156580</v>
+        <v>0</v>
       </c>
       <c r="AR71" s="15">
-        <v>192205</v>
+        <v>0</v>
       </c>
       <c r="AS71" s="15">
-        <v>33026</v>
+        <v>0</v>
       </c>
       <c r="AT71" s="15">
-        <v>0</v>
+        <v>38874</v>
       </c>
       <c r="AU71" s="15">
-        <v>0</v>
+        <v>91052</v>
       </c>
       <c r="AV71" s="15">
         <v>0</v>
       </c>
       <c r="AW71" s="15">
-        <v>38874</v>
+        <v>0</v>
       </c>
       <c r="AX71" s="15">
-        <v>91052</v>
+        <v>16538</v>
       </c>
       <c r="AY71" s="15">
-        <v>0</v>
+        <v>86852</v>
       </c>
       <c r="AZ71" s="15">
-        <v>0</v>
+        <v>13714</v>
       </c>
       <c r="BA71" s="15">
-        <v>16538</v>
+        <v>75255</v>
       </c>
       <c r="BB71" s="15">
-        <v>86852</v>
+        <v>125531</v>
       </c>
     </row>
     <row r="72" spans="2:54" x14ac:dyDescent="0.3">
@@ -9268,8 +9268,8 @@
       <c r="T73" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="U73" s="9" t="s">
-        <v>58</v>
+      <c r="U73" s="9">
+        <v>-188779</v>
       </c>
       <c r="V73" s="9" t="s">
         <v>58</v>
@@ -9277,8 +9277,8 @@
       <c r="W73" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="X73" s="9">
-        <v>-188779</v>
+      <c r="X73" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="Y73" s="9" t="s">
         <v>58</v>
@@ -9304,8 +9304,8 @@
       <c r="AF73" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AG73" s="9" t="s">
-        <v>58</v>
+      <c r="AG73" s="9">
+        <v>-328250</v>
       </c>
       <c r="AH73" s="9" t="s">
         <v>58</v>
@@ -9313,47 +9313,47 @@
       <c r="AI73" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AJ73" s="9">
-        <v>-328250</v>
+      <c r="AJ73" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="AK73" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AL73" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM73" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN73" s="9" t="s">
-        <v>58</v>
+      <c r="AL73" s="9">
+        <v>-124340</v>
+      </c>
+      <c r="AM73" s="9">
+        <v>-85484</v>
+      </c>
+      <c r="AN73" s="9">
+        <v>-155425</v>
       </c>
       <c r="AO73" s="9">
-        <v>-124340</v>
+        <v>-31150</v>
       </c>
       <c r="AP73" s="9">
-        <v>-85484</v>
+        <v>0</v>
       </c>
       <c r="AQ73" s="9">
-        <v>-155425</v>
+        <v>0</v>
       </c>
       <c r="AR73" s="9">
-        <v>-31150</v>
+        <v>0</v>
       </c>
       <c r="AS73" s="9">
-        <v>0</v>
+        <v>-1195182</v>
       </c>
       <c r="AT73" s="9">
-        <v>0</v>
+        <v>-66100</v>
       </c>
       <c r="AU73" s="9">
         <v>0</v>
       </c>
       <c r="AV73" s="9">
-        <v>-1195182</v>
+        <v>0</v>
       </c>
       <c r="AW73" s="9">
-        <v>-66100</v>
+        <v>0</v>
       </c>
       <c r="AX73" s="9">
         <v>0</v>
@@ -9409,14 +9409,14 @@
       <c r="N74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="O74" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="P74" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q74" s="13" t="s">
-        <v>58</v>
+      <c r="O74" s="13">
+        <v>0</v>
+      </c>
+      <c r="P74" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="13">
+        <v>0</v>
       </c>
       <c r="R74" s="13">
         <v>0</v>
@@ -9425,20 +9425,20 @@
         <v>0</v>
       </c>
       <c r="T74" s="13">
-        <v>0</v>
+        <v>-386</v>
       </c>
       <c r="U74" s="13">
-        <v>0</v>
-      </c>
-      <c r="V74" s="13">
-        <v>0</v>
-      </c>
-      <c r="W74" s="13">
-        <v>-386</v>
-      </c>
-      <c r="X74" s="13">
         <v>-449</v>
       </c>
+      <c r="V74" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="W74" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="X74" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="Y74" s="13" t="s">
         <v>58</v>
       </c>
@@ -9448,14 +9448,14 @@
       <c r="AA74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB74" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC74" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD74" s="13" t="s">
-        <v>58</v>
+      <c r="AB74" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="13">
+        <v>-10211</v>
       </c>
       <c r="AE74" s="13">
         <v>0</v>
@@ -9464,16 +9464,16 @@
         <v>0</v>
       </c>
       <c r="AG74" s="13">
-        <v>-10211</v>
-      </c>
-      <c r="AH74" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI74" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ74" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AH74" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI74" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ74" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK74" s="13" t="s">
         <v>58</v>
@@ -9493,24 +9493,24 @@
       <c r="AP74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ74" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR74" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS74" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT74" s="13">
+      <c r="AQ74" s="13">
         <v>-22290</v>
       </c>
-      <c r="AU74" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV74" s="13">
+      <c r="AR74" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS74" s="13">
         <v>-102416</v>
       </c>
+      <c r="AT74" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU74" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV74" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AW74" s="13" t="s">
         <v>58</v>
       </c>
@@ -9526,8 +9526,8 @@
       <c r="BA74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BB74" s="13" t="s">
-        <v>58</v>
+      <c r="BB74" s="13">
+        <v>-88968</v>
       </c>
     </row>
     <row r="75" spans="2:54" x14ac:dyDescent="0.3">
@@ -9574,14 +9574,14 @@
       <c r="P75" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="Q75" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="R75" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="S75" s="9" t="s">
-        <v>58</v>
+      <c r="Q75" s="9">
+        <v>0</v>
+      </c>
+      <c r="R75" s="9">
+        <v>0</v>
+      </c>
+      <c r="S75" s="9">
+        <v>0</v>
       </c>
       <c r="T75" s="9">
         <v>0</v>
@@ -9589,14 +9589,14 @@
       <c r="U75" s="9">
         <v>0</v>
       </c>
-      <c r="V75" s="9">
-        <v>0</v>
-      </c>
-      <c r="W75" s="9">
-        <v>0</v>
-      </c>
-      <c r="X75" s="9">
-        <v>0</v>
+      <c r="V75" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W75" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="X75" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="Y75" s="9" t="s">
         <v>58</v>
@@ -9610,14 +9610,14 @@
       <c r="AB75" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AC75" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD75" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE75" s="9" t="s">
-        <v>58</v>
+      <c r="AC75" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="9">
+        <v>0</v>
       </c>
       <c r="AF75" s="9">
         <v>0</v>
@@ -9625,14 +9625,14 @@
       <c r="AG75" s="9">
         <v>0</v>
       </c>
-      <c r="AH75" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI75" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ75" s="9">
-        <v>0</v>
+      <c r="AH75" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI75" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ75" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="AK75" s="9" t="s">
         <v>58</v>
@@ -9727,35 +9727,35 @@
       <c r="N76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="O76" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="P76" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q76" s="13" t="s">
-        <v>58</v>
+      <c r="O76" s="13">
+        <v>0</v>
+      </c>
+      <c r="P76" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="13">
+        <v>-154</v>
       </c>
       <c r="R76" s="13">
         <v>0</v>
       </c>
       <c r="S76" s="13">
-        <v>0</v>
+        <v>-2583</v>
       </c>
       <c r="T76" s="13">
-        <v>-154</v>
+        <v>-557</v>
       </c>
       <c r="U76" s="13">
         <v>0</v>
       </c>
-      <c r="V76" s="13">
-        <v>-2583</v>
-      </c>
-      <c r="W76" s="13">
-        <v>-557</v>
-      </c>
-      <c r="X76" s="13">
-        <v>0</v>
+      <c r="V76" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="W76" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="X76" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="Y76" s="13" t="s">
         <v>58</v>
@@ -9766,17 +9766,17 @@
       <c r="AA76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB76" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC76" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD76" s="13" t="s">
-        <v>58</v>
+      <c r="AB76" s="13">
+        <v>-2956</v>
+      </c>
+      <c r="AC76" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD76" s="13">
+        <v>0</v>
       </c>
       <c r="AE76" s="13">
-        <v>-2956</v>
+        <v>0</v>
       </c>
       <c r="AF76" s="13">
         <v>0</v>
@@ -9784,8 +9784,8 @@
       <c r="AG76" s="13">
         <v>0</v>
       </c>
-      <c r="AH76" s="13">
-        <v>0</v>
+      <c r="AH76" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI76" s="13">
         <v>0</v>
@@ -9793,8 +9793,8 @@
       <c r="AJ76" s="13">
         <v>0</v>
       </c>
-      <c r="AK76" s="13" t="s">
-        <v>58</v>
+      <c r="AK76" s="13">
+        <v>0</v>
       </c>
       <c r="AL76" s="13">
         <v>0</v>
@@ -9803,13 +9803,13 @@
         <v>0</v>
       </c>
       <c r="AN76" s="13">
-        <v>0</v>
+        <v>-935</v>
       </c>
       <c r="AO76" s="13">
         <v>0</v>
       </c>
       <c r="AP76" s="13">
-        <v>0</v>
+        <v>-1054</v>
       </c>
       <c r="AQ76" s="13">
         <v>-935</v>
@@ -9818,31 +9818,31 @@
         <v>0</v>
       </c>
       <c r="AS76" s="13">
-        <v>-1054</v>
-      </c>
-      <c r="AT76" s="13">
-        <v>-935</v>
-      </c>
-      <c r="AU76" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AT76" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU76" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV76" s="13">
-        <v>0</v>
-      </c>
-      <c r="AW76" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX76" s="13" t="s">
-        <v>58</v>
+        <v>-761</v>
+      </c>
+      <c r="AW76" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX76" s="13">
+        <v>0</v>
       </c>
       <c r="AY76" s="13">
-        <v>-761</v>
+        <v>0</v>
       </c>
       <c r="AZ76" s="13">
         <v>0</v>
       </c>
       <c r="BA76" s="13">
-        <v>0</v>
+        <v>-3018</v>
       </c>
       <c r="BB76" s="13">
         <v>0</v>
@@ -9901,20 +9901,20 @@
       <c r="S77" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="T77" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="U77" s="9" t="s">
-        <v>58</v>
+      <c r="T77" s="9">
+        <v>-29</v>
+      </c>
+      <c r="U77" s="9">
+        <v>0</v>
       </c>
       <c r="V77" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="W77" s="9">
-        <v>-29</v>
-      </c>
-      <c r="X77" s="9">
-        <v>0</v>
+      <c r="W77" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="X77" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="Y77" s="9" t="s">
         <v>58</v>
@@ -10050,28 +10050,28 @@
         <v>0</v>
       </c>
       <c r="Q78" s="19">
-        <v>0</v>
+        <v>-154</v>
       </c>
       <c r="R78" s="19">
         <v>0</v>
       </c>
       <c r="S78" s="19">
-        <v>0</v>
+        <v>-2583</v>
       </c>
       <c r="T78" s="19">
-        <v>-154</v>
+        <v>-972</v>
       </c>
       <c r="U78" s="19">
-        <v>0</v>
+        <v>-189228</v>
       </c>
       <c r="V78" s="19">
-        <v>-2583</v>
+        <v>0</v>
       </c>
       <c r="W78" s="19">
-        <v>-972</v>
+        <v>0</v>
       </c>
       <c r="X78" s="19">
-        <v>-189228</v>
+        <v>0</v>
       </c>
       <c r="Y78" s="19">
         <v>0</v>
@@ -10083,22 +10083,22 @@
         <v>0</v>
       </c>
       <c r="AB78" s="19">
-        <v>0</v>
+        <v>-2956</v>
       </c>
       <c r="AC78" s="19">
         <v>0</v>
       </c>
       <c r="AD78" s="19">
-        <v>0</v>
+        <v>-10211</v>
       </c>
       <c r="AE78" s="19">
-        <v>-2956</v>
+        <v>0</v>
       </c>
       <c r="AF78" s="19">
         <v>0</v>
       </c>
       <c r="AG78" s="19">
-        <v>-10211</v>
+        <v>-328250</v>
       </c>
       <c r="AH78" s="19">
         <v>0</v>
@@ -10107,61 +10107,61 @@
         <v>0</v>
       </c>
       <c r="AJ78" s="19">
-        <v>-328250</v>
+        <v>0</v>
       </c>
       <c r="AK78" s="19">
         <v>0</v>
       </c>
       <c r="AL78" s="19">
-        <v>0</v>
+        <v>-124340</v>
       </c>
       <c r="AM78" s="19">
-        <v>0</v>
+        <v>-85484</v>
       </c>
       <c r="AN78" s="19">
-        <v>0</v>
+        <v>-156360</v>
       </c>
       <c r="AO78" s="19">
-        <v>-124340</v>
+        <v>-31150</v>
       </c>
       <c r="AP78" s="19">
-        <v>-85484</v>
+        <v>-1054</v>
       </c>
       <c r="AQ78" s="19">
-        <v>-156360</v>
+        <v>-23225</v>
       </c>
       <c r="AR78" s="19">
-        <v>-31150</v>
+        <v>0</v>
       </c>
       <c r="AS78" s="19">
-        <v>-1054</v>
+        <v>-1297598</v>
       </c>
       <c r="AT78" s="19">
-        <v>-23225</v>
+        <v>-66100</v>
       </c>
       <c r="AU78" s="19">
         <v>0</v>
       </c>
       <c r="AV78" s="19">
-        <v>-1297598</v>
+        <v>-761</v>
       </c>
       <c r="AW78" s="19">
-        <v>-66100</v>
+        <v>0</v>
       </c>
       <c r="AX78" s="19">
         <v>0</v>
       </c>
       <c r="AY78" s="19">
-        <v>-761</v>
+        <v>0</v>
       </c>
       <c r="AZ78" s="19">
         <v>0</v>
       </c>
       <c r="BA78" s="19">
-        <v>0</v>
+        <v>-3018</v>
       </c>
       <c r="BB78" s="19">
-        <v>0</v>
+        <v>-88968</v>
       </c>
     </row>
     <row r="79" spans="2:54" x14ac:dyDescent="0.3">
@@ -10672,14 +10672,14 @@
       <c r="I84" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="J84" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K84" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="L84" s="9" t="s">
-        <v>58</v>
+      <c r="J84" s="9">
+        <v>0</v>
+      </c>
+      <c r="K84" s="9">
+        <v>0</v>
+      </c>
+      <c r="L84" s="9">
+        <v>0</v>
       </c>
       <c r="M84" s="9">
         <v>0</v>
@@ -10763,7 +10763,7 @@
         <v>0</v>
       </c>
       <c r="AN84" s="9">
-        <v>0</v>
+        <v>-430</v>
       </c>
       <c r="AO84" s="9">
         <v>0</v>
@@ -10772,7 +10772,7 @@
         <v>0</v>
       </c>
       <c r="AQ84" s="9">
-        <v>-430</v>
+        <v>0</v>
       </c>
       <c r="AR84" s="9">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="AN85" s="19">
-        <v>0</v>
+        <v>-430</v>
       </c>
       <c r="AO85" s="19">
         <v>0</v>
@@ -10929,7 +10929,7 @@
         <v>0</v>
       </c>
       <c r="AQ85" s="19">
-        <v>-430</v>
+        <v>0</v>
       </c>
       <c r="AR85" s="19">
         <v>0</v>
@@ -10987,139 +10987,139 @@
         <v>0</v>
       </c>
       <c r="J86" s="15">
-        <v>0</v>
+        <v>145291</v>
       </c>
       <c r="K86" s="15">
-        <v>0</v>
+        <v>148059</v>
       </c>
       <c r="L86" s="15">
-        <v>0</v>
+        <v>100464</v>
       </c>
       <c r="M86" s="15">
-        <v>145291</v>
+        <v>144159</v>
       </c>
       <c r="N86" s="15">
-        <v>148059</v>
+        <v>123734</v>
       </c>
       <c r="O86" s="15">
-        <v>100464</v>
+        <v>143680</v>
       </c>
       <c r="P86" s="15">
-        <v>144159</v>
+        <v>147782</v>
       </c>
       <c r="Q86" s="15">
-        <v>123734</v>
+        <v>172763</v>
       </c>
       <c r="R86" s="15">
-        <v>143680</v>
+        <v>208815</v>
       </c>
       <c r="S86" s="15">
-        <v>147782</v>
+        <v>290323</v>
       </c>
       <c r="T86" s="15">
-        <v>172763</v>
+        <v>353286</v>
       </c>
       <c r="U86" s="15">
-        <v>208815</v>
+        <v>254715</v>
       </c>
       <c r="V86" s="15">
-        <v>290323</v>
+        <v>243016</v>
       </c>
       <c r="W86" s="15">
-        <v>353286</v>
+        <v>410694</v>
       </c>
       <c r="X86" s="15">
-        <v>254715</v>
+        <v>473136</v>
       </c>
       <c r="Y86" s="15">
-        <v>243016</v>
+        <v>268393</v>
       </c>
       <c r="Z86" s="15">
-        <v>410694</v>
+        <v>222038</v>
       </c>
       <c r="AA86" s="15">
-        <v>473136</v>
+        <v>324465</v>
       </c>
       <c r="AB86" s="15">
-        <v>268393</v>
+        <v>283095</v>
       </c>
       <c r="AC86" s="15">
-        <v>222038</v>
+        <v>337147</v>
       </c>
       <c r="AD86" s="15">
-        <v>324465</v>
+        <v>507762</v>
       </c>
       <c r="AE86" s="15">
-        <v>283095</v>
+        <v>845838</v>
       </c>
       <c r="AF86" s="15">
-        <v>337147</v>
+        <v>1519237</v>
       </c>
       <c r="AG86" s="15">
-        <v>507762</v>
+        <v>237050</v>
       </c>
       <c r="AH86" s="15">
-        <v>845838</v>
+        <v>472505</v>
       </c>
       <c r="AI86" s="15">
-        <v>1519237</v>
+        <v>278181</v>
       </c>
       <c r="AJ86" s="15">
-        <v>237050</v>
+        <v>631436</v>
       </c>
       <c r="AK86" s="15">
-        <v>472505</v>
+        <v>975390</v>
       </c>
       <c r="AL86" s="15">
-        <v>278181</v>
+        <v>601866</v>
       </c>
       <c r="AM86" s="15">
-        <v>631436</v>
+        <v>1112449</v>
       </c>
       <c r="AN86" s="15">
-        <v>975390</v>
+        <v>1158140</v>
       </c>
       <c r="AO86" s="15">
-        <v>601866</v>
+        <v>1632073</v>
       </c>
       <c r="AP86" s="15">
-        <v>1112449</v>
+        <v>731292</v>
       </c>
       <c r="AQ86" s="15">
-        <v>1158140</v>
+        <v>448511</v>
       </c>
       <c r="AR86" s="15">
-        <v>1632073</v>
+        <v>820627</v>
       </c>
       <c r="AS86" s="15">
-        <v>731292</v>
+        <v>900620</v>
       </c>
       <c r="AT86" s="15">
-        <v>448511</v>
+        <v>3299130</v>
       </c>
       <c r="AU86" s="15">
-        <v>820627</v>
+        <v>2118872</v>
       </c>
       <c r="AV86" s="15">
-        <v>900620</v>
+        <v>1486854</v>
       </c>
       <c r="AW86" s="15">
-        <v>3299130</v>
+        <v>1269564</v>
       </c>
       <c r="AX86" s="15">
-        <v>2118872</v>
+        <v>1419725</v>
       </c>
       <c r="AY86" s="15">
-        <v>1486854</v>
+        <v>527897</v>
       </c>
       <c r="AZ86" s="15">
-        <v>1269564</v>
+        <v>389697</v>
       </c>
       <c r="BA86" s="15">
-        <v>1419725</v>
+        <v>487595</v>
       </c>
       <c r="BB86" s="15">
-        <v>527897</v>
+        <v>1373132</v>
       </c>
     </row>
     <row r="87" spans="2:54" x14ac:dyDescent="0.3">
@@ -11652,122 +11652,122 @@
       <c r="O94" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="P94" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q94" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="R94" s="9" t="s">
-        <v>58</v>
+      <c r="P94" s="9">
+        <v>119068182</v>
+      </c>
+      <c r="Q94" s="9">
+        <v>110563025</v>
+      </c>
+      <c r="R94" s="9">
+        <v>110096386</v>
       </c>
       <c r="S94" s="9">
-        <v>119068182</v>
+        <v>103144970</v>
       </c>
       <c r="T94" s="9">
-        <v>110563025</v>
+        <v>114561069</v>
       </c>
       <c r="U94" s="9">
-        <v>110096386</v>
+        <v>115829870</v>
       </c>
       <c r="V94" s="9">
-        <v>103144970</v>
+        <v>116730181</v>
       </c>
       <c r="W94" s="9">
-        <v>114561069</v>
+        <v>117779456</v>
       </c>
       <c r="X94" s="9">
-        <v>115829870</v>
+        <v>118038131</v>
       </c>
       <c r="Y94" s="9">
-        <v>116730181</v>
+        <v>117835938</v>
       </c>
       <c r="Z94" s="9">
-        <v>117779456</v>
+        <v>116916667</v>
       </c>
       <c r="AA94" s="9">
-        <v>118038131</v>
+        <v>126903846</v>
       </c>
       <c r="AB94" s="9">
-        <v>117835938</v>
+        <v>124700000</v>
       </c>
       <c r="AC94" s="9">
-        <v>116916667</v>
+        <v>152675676</v>
       </c>
       <c r="AD94" s="9">
-        <v>126903846</v>
+        <v>149297721</v>
       </c>
       <c r="AE94" s="9">
-        <v>124700000</v>
+        <v>159069997</v>
       </c>
       <c r="AF94" s="9">
-        <v>152675676</v>
+        <v>156425835</v>
       </c>
       <c r="AG94" s="9">
-        <v>149297721</v>
+        <v>159049696</v>
       </c>
       <c r="AH94" s="9">
-        <v>159069997</v>
+        <v>159961022</v>
       </c>
       <c r="AI94" s="9">
-        <v>156425835</v>
+        <v>159044379</v>
       </c>
       <c r="AJ94" s="9">
-        <v>159049696</v>
+        <v>257334711</v>
       </c>
       <c r="AK94" s="9">
-        <v>159961022</v>
+        <v>309274086</v>
       </c>
       <c r="AL94" s="9">
-        <v>159044379</v>
+        <v>308664220</v>
       </c>
       <c r="AM94" s="9">
-        <v>257334711</v>
+        <v>303897549</v>
       </c>
       <c r="AN94" s="9">
-        <v>309274086</v>
+        <v>308736565</v>
       </c>
       <c r="AO94" s="9">
-        <v>308664220</v>
+        <v>322562615</v>
       </c>
       <c r="AP94" s="9">
-        <v>303897549</v>
+        <v>303309493</v>
       </c>
       <c r="AQ94" s="9">
-        <v>308736565</v>
+        <v>312357143</v>
       </c>
       <c r="AR94" s="9">
-        <v>322562615</v>
+        <v>415297143</v>
       </c>
       <c r="AS94" s="9">
-        <v>303309493</v>
+        <v>413895609</v>
       </c>
       <c r="AT94" s="9">
-        <v>312357143</v>
+        <v>412938759</v>
       </c>
       <c r="AU94" s="9">
-        <v>415297143</v>
+        <v>412068800</v>
       </c>
       <c r="AV94" s="9">
-        <v>413895609</v>
+        <v>412299109</v>
       </c>
       <c r="AW94" s="9">
-        <v>412938759</v>
+        <v>413577564</v>
       </c>
       <c r="AX94" s="9">
-        <v>412068800</v>
+        <v>408663068</v>
       </c>
       <c r="AY94" s="9">
-        <v>412299109</v>
+        <v>410299200</v>
       </c>
       <c r="AZ94" s="9">
-        <v>413577564</v>
+        <v>409079745</v>
       </c>
       <c r="BA94" s="9">
-        <v>408663068</v>
+        <v>412532738</v>
       </c>
       <c r="BB94" s="9">
-        <v>410299200</v>
+        <v>412844095</v>
       </c>
     </row>
     <row r="95" spans="2:54" x14ac:dyDescent="0.3">
@@ -11793,140 +11793,140 @@
       <c r="I95" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="J95" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="K95" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L95" s="13" t="s">
-        <v>58</v>
+      <c r="J95" s="13">
+        <v>16014541</v>
+      </c>
+      <c r="K95" s="13">
+        <v>16004457</v>
+      </c>
+      <c r="L95" s="13">
+        <v>16002959</v>
       </c>
       <c r="M95" s="13">
-        <v>16014541</v>
+        <v>16752178</v>
       </c>
       <c r="N95" s="13">
-        <v>16004457</v>
+        <v>17072282</v>
       </c>
       <c r="O95" s="13">
-        <v>16002959</v>
+        <v>18050789</v>
       </c>
       <c r="P95" s="13">
-        <v>16752178</v>
+        <v>21570600</v>
       </c>
       <c r="Q95" s="13">
-        <v>17072282</v>
+        <v>26286154</v>
       </c>
       <c r="R95" s="13">
-        <v>18050789</v>
+        <v>28002584</v>
       </c>
       <c r="S95" s="13">
-        <v>21570600</v>
+        <v>30002501</v>
       </c>
       <c r="T95" s="13">
-        <v>26286154</v>
+        <v>30910633</v>
       </c>
       <c r="U95" s="13">
-        <v>28002584</v>
+        <v>33010566</v>
       </c>
       <c r="V95" s="13">
-        <v>30002501</v>
+        <v>34617371</v>
       </c>
       <c r="W95" s="13">
-        <v>30910633</v>
+        <v>36157283</v>
       </c>
       <c r="X95" s="13">
-        <v>33010566</v>
+        <v>36804045</v>
       </c>
       <c r="Y95" s="13">
-        <v>34617371</v>
+        <v>37207265</v>
       </c>
       <c r="Z95" s="13">
-        <v>36157283</v>
+        <v>38585526</v>
       </c>
       <c r="AA95" s="13">
-        <v>36804045</v>
+        <v>39843454</v>
       </c>
       <c r="AB95" s="13">
-        <v>37207265</v>
+        <v>42594349</v>
       </c>
       <c r="AC95" s="13">
-        <v>38585526</v>
+        <v>46158661</v>
       </c>
       <c r="AD95" s="13">
-        <v>39843454</v>
+        <v>49950307</v>
       </c>
       <c r="AE95" s="13">
-        <v>42594349</v>
+        <v>54750943</v>
       </c>
       <c r="AF95" s="13">
-        <v>46158661</v>
+        <v>60129894</v>
       </c>
       <c r="AG95" s="13">
-        <v>49950307</v>
+        <v>62769052</v>
       </c>
       <c r="AH95" s="13">
-        <v>54750943</v>
+        <v>67227189</v>
       </c>
       <c r="AI95" s="13">
-        <v>60129894</v>
+        <v>83503876</v>
       </c>
       <c r="AJ95" s="13">
-        <v>62769052</v>
+        <v>88154137</v>
       </c>
       <c r="AK95" s="13">
-        <v>67227189</v>
+        <v>89074502</v>
       </c>
       <c r="AL95" s="13">
-        <v>83503876</v>
+        <v>93863154</v>
       </c>
       <c r="AM95" s="13">
-        <v>88154137</v>
+        <v>96485202</v>
       </c>
       <c r="AN95" s="13">
-        <v>89074502</v>
+        <v>97933894</v>
       </c>
       <c r="AO95" s="13">
-        <v>93863154</v>
+        <v>96708538</v>
       </c>
       <c r="AP95" s="13">
-        <v>96485202</v>
+        <v>98801075</v>
       </c>
       <c r="AQ95" s="13">
-        <v>97933894</v>
+        <v>105939189</v>
       </c>
       <c r="AR95" s="13">
-        <v>96708538</v>
+        <v>119039640</v>
       </c>
       <c r="AS95" s="13">
-        <v>98801075</v>
+        <v>113966996</v>
       </c>
       <c r="AT95" s="13">
-        <v>105939189</v>
+        <v>124266164</v>
       </c>
       <c r="AU95" s="13">
-        <v>119039640</v>
+        <v>117153353</v>
       </c>
       <c r="AV95" s="13">
-        <v>113966996</v>
+        <v>116713717</v>
       </c>
       <c r="AW95" s="13">
-        <v>124266164</v>
+        <v>110759950</v>
       </c>
       <c r="AX95" s="13">
-        <v>117153353</v>
+        <v>109496783</v>
       </c>
       <c r="AY95" s="13">
-        <v>116713717</v>
+        <v>105627854</v>
       </c>
       <c r="AZ95" s="13">
-        <v>110759950</v>
+        <v>101811623</v>
       </c>
       <c r="BA95" s="13">
-        <v>109496783</v>
+        <v>104923757</v>
       </c>
       <c r="BB95" s="13">
-        <v>105627854</v>
+        <v>102788582</v>
       </c>
     </row>
     <row r="96" spans="2:54" x14ac:dyDescent="0.3">
@@ -11952,140 +11952,140 @@
       <c r="I96" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="J96" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K96" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="L96" s="9" t="s">
-        <v>58</v>
+      <c r="J96" s="9">
+        <v>135431579</v>
+      </c>
+      <c r="K96" s="9">
+        <v>133751790</v>
+      </c>
+      <c r="L96" s="9">
+        <v>133744444</v>
       </c>
       <c r="M96" s="9">
-        <v>135431579</v>
+        <v>263125561</v>
       </c>
       <c r="N96" s="9">
-        <v>133751790</v>
+        <v>188751515</v>
       </c>
       <c r="O96" s="9">
-        <v>133744444</v>
+        <v>176364455</v>
       </c>
       <c r="P96" s="9">
-        <v>263125561</v>
+        <v>222026316</v>
       </c>
       <c r="Q96" s="9">
-        <v>188751515</v>
+        <v>237600719</v>
       </c>
       <c r="R96" s="9">
-        <v>176364455</v>
+        <v>252161074</v>
       </c>
       <c r="S96" s="9">
-        <v>222026316</v>
+        <v>286649083</v>
       </c>
       <c r="T96" s="9">
-        <v>237600719</v>
+        <v>334701987</v>
       </c>
       <c r="U96" s="9">
-        <v>252161074</v>
+        <v>336717213</v>
       </c>
       <c r="V96" s="9">
-        <v>286649083</v>
+        <v>312100000</v>
       </c>
       <c r="W96" s="9">
-        <v>334701987</v>
+        <v>364358586</v>
       </c>
       <c r="X96" s="9">
-        <v>336717213</v>
+        <v>372136842</v>
       </c>
       <c r="Y96" s="9">
-        <v>312100000</v>
+        <v>364913907</v>
       </c>
       <c r="Z96" s="9">
-        <v>364358586</v>
+        <v>472845455</v>
       </c>
       <c r="AA96" s="9">
-        <v>372136842</v>
+        <v>497520492</v>
       </c>
       <c r="AB96" s="9">
-        <v>364913907</v>
+        <v>587891667</v>
       </c>
       <c r="AC96" s="9">
-        <v>472845455</v>
+        <v>701108333</v>
       </c>
       <c r="AD96" s="9">
-        <v>497520492</v>
+        <v>795938272</v>
       </c>
       <c r="AE96" s="9">
-        <v>587891667</v>
+        <v>792264151</v>
       </c>
       <c r="AF96" s="9">
-        <v>701108333</v>
+        <v>645596000</v>
       </c>
       <c r="AG96" s="9">
-        <v>795938272</v>
+        <v>671720000</v>
       </c>
       <c r="AH96" s="9">
-        <v>792264151</v>
+        <v>587791667</v>
       </c>
       <c r="AI96" s="9">
-        <v>645596000</v>
+        <v>553168000</v>
       </c>
       <c r="AJ96" s="9">
-        <v>671720000</v>
+        <v>562607362</v>
       </c>
       <c r="AK96" s="9">
-        <v>587791667</v>
+        <v>497019417</v>
       </c>
       <c r="AL96" s="9">
-        <v>553168000</v>
+        <v>453028736</v>
       </c>
       <c r="AM96" s="9">
-        <v>562607362</v>
+        <v>438919118</v>
       </c>
       <c r="AN96" s="9">
-        <v>497019417</v>
+        <v>440625483</v>
       </c>
       <c r="AO96" s="9">
-        <v>453028736</v>
+        <v>412018836</v>
       </c>
       <c r="AP96" s="9">
-        <v>438919118</v>
+        <v>409153226</v>
       </c>
       <c r="AQ96" s="9">
-        <v>440625483</v>
+        <v>517151565</v>
       </c>
       <c r="AR96" s="9">
-        <v>412018836</v>
+        <v>726600567</v>
       </c>
       <c r="AS96" s="9">
-        <v>409153226</v>
+        <v>866472789</v>
       </c>
       <c r="AT96" s="9">
-        <v>517151565</v>
-      </c>
-      <c r="AU96" s="9">
-        <v>726600567</v>
+        <v>601946667</v>
+      </c>
+      <c r="AU96" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="AV96" s="9">
-        <v>866472789</v>
+        <v>437268182</v>
       </c>
       <c r="AW96" s="9">
-        <v>601946667</v>
-      </c>
-      <c r="AX96" s="9" t="s">
-        <v>58</v>
+        <v>410384146</v>
+      </c>
+      <c r="AX96" s="9">
+        <v>401154930</v>
       </c>
       <c r="AY96" s="9">
-        <v>437268182</v>
+        <v>355307018</v>
       </c>
       <c r="AZ96" s="9">
-        <v>410384146</v>
+        <v>337750000</v>
       </c>
       <c r="BA96" s="9">
-        <v>401154930</v>
+        <v>344347222</v>
       </c>
       <c r="BB96" s="9">
-        <v>355307018</v>
+        <v>389179012</v>
       </c>
     </row>
     <row r="97" spans="2:54" x14ac:dyDescent="0.3">
@@ -12111,140 +12111,140 @@
       <c r="I97" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="J97" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="K97" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L97" s="13" t="s">
-        <v>58</v>
+      <c r="J97" s="13">
+        <v>5440336</v>
+      </c>
+      <c r="K97" s="13">
+        <v>6941869</v>
+      </c>
+      <c r="L97" s="13">
+        <v>6944206</v>
       </c>
       <c r="M97" s="13">
-        <v>5440336</v>
+        <v>6530885</v>
       </c>
       <c r="N97" s="13">
-        <v>6941869</v>
+        <v>6521978</v>
       </c>
       <c r="O97" s="13">
-        <v>6944206</v>
+        <v>7345294</v>
       </c>
       <c r="P97" s="13">
-        <v>6530885</v>
+        <v>8081471</v>
       </c>
       <c r="Q97" s="13">
-        <v>6521978</v>
+        <v>10566366</v>
       </c>
       <c r="R97" s="13">
-        <v>7345294</v>
+        <v>10628519</v>
       </c>
       <c r="S97" s="13">
-        <v>8081471</v>
+        <v>9069475</v>
       </c>
       <c r="T97" s="13">
-        <v>10566366</v>
+        <v>12771574</v>
       </c>
       <c r="U97" s="13">
-        <v>10628519</v>
+        <v>15310311</v>
       </c>
       <c r="V97" s="13">
-        <v>9069475</v>
+        <v>13821212</v>
       </c>
       <c r="W97" s="13">
-        <v>12771574</v>
+        <v>18117992</v>
       </c>
       <c r="X97" s="13">
-        <v>15310311</v>
+        <v>20696459</v>
       </c>
       <c r="Y97" s="13">
-        <v>13821212</v>
+        <v>19670625</v>
       </c>
       <c r="Z97" s="13">
-        <v>18117992</v>
+        <v>17743182</v>
       </c>
       <c r="AA97" s="13">
-        <v>20696459</v>
+        <v>20537300</v>
       </c>
       <c r="AB97" s="13">
-        <v>19670625</v>
+        <v>18410345</v>
       </c>
       <c r="AC97" s="13">
-        <v>17743182</v>
+        <v>18766204</v>
       </c>
       <c r="AD97" s="13">
-        <v>20537300</v>
+        <v>23069353</v>
       </c>
       <c r="AE97" s="13">
-        <v>18410345</v>
+        <v>24647530</v>
       </c>
       <c r="AF97" s="13">
-        <v>18766204</v>
+        <v>22494359</v>
       </c>
       <c r="AG97" s="13">
-        <v>23069353</v>
+        <v>24350877</v>
       </c>
       <c r="AH97" s="13">
-        <v>24647530</v>
-      </c>
-      <c r="AI97" s="13">
-        <v>22494359</v>
-      </c>
-      <c r="AJ97" s="13">
-        <v>24350877</v>
+        <v>30790930</v>
+      </c>
+      <c r="AI97" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ97" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK97" s="13">
-        <v>30790930</v>
-      </c>
-      <c r="AL97" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM97" s="13" t="s">
-        <v>58</v>
+        <v>42126087</v>
+      </c>
+      <c r="AL97" s="13">
+        <v>42413932</v>
+      </c>
+      <c r="AM97" s="13">
+        <v>31203136</v>
       </c>
       <c r="AN97" s="13">
-        <v>42126087</v>
+        <v>33817402</v>
       </c>
       <c r="AO97" s="13">
-        <v>42413932</v>
+        <v>35863536</v>
       </c>
       <c r="AP97" s="13">
-        <v>31203136</v>
+        <v>35470264</v>
       </c>
       <c r="AQ97" s="13">
-        <v>33817402</v>
+        <v>37006260</v>
       </c>
       <c r="AR97" s="13">
-        <v>35863536</v>
+        <v>34891593</v>
       </c>
       <c r="AS97" s="13">
-        <v>35470264</v>
+        <v>34095628</v>
       </c>
       <c r="AT97" s="13">
-        <v>37006260</v>
+        <v>35887273</v>
       </c>
       <c r="AU97" s="13">
-        <v>34891593</v>
+        <v>31653226</v>
       </c>
       <c r="AV97" s="13">
-        <v>34095628</v>
+        <v>32161074</v>
       </c>
       <c r="AW97" s="13">
-        <v>35887273</v>
+        <v>36011019</v>
       </c>
       <c r="AX97" s="13">
-        <v>31653226</v>
+        <v>12114774</v>
       </c>
       <c r="AY97" s="13">
-        <v>32161074</v>
+        <v>32081159</v>
       </c>
       <c r="AZ97" s="13">
-        <v>36011019</v>
+        <v>32734653</v>
       </c>
       <c r="BA97" s="13">
-        <v>12114774</v>
+        <v>30696160</v>
       </c>
       <c r="BB97" s="13">
-        <v>32081159</v>
+        <v>30781955</v>
       </c>
     </row>
     <row r="98" spans="2:54" x14ac:dyDescent="0.3">
@@ -12288,56 +12288,56 @@
       <c r="O98" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="P98" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q98" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="R98" s="9" t="s">
-        <v>58</v>
+      <c r="P98" s="9">
+        <v>591398</v>
+      </c>
+      <c r="Q98" s="9">
+        <v>442227</v>
+      </c>
+      <c r="R98" s="9">
+        <v>366124</v>
       </c>
       <c r="S98" s="9">
-        <v>591398</v>
+        <v>298021</v>
       </c>
       <c r="T98" s="9">
-        <v>442227</v>
+        <v>302605</v>
       </c>
       <c r="U98" s="9">
-        <v>366124</v>
+        <v>284483</v>
       </c>
       <c r="V98" s="9">
-        <v>298021</v>
+        <v>122542</v>
       </c>
       <c r="W98" s="9">
-        <v>302605</v>
+        <v>1371769</v>
       </c>
       <c r="X98" s="9">
-        <v>284483</v>
+        <v>2950108</v>
       </c>
       <c r="Y98" s="9">
-        <v>122542</v>
+        <v>3926724</v>
       </c>
       <c r="Z98" s="9">
-        <v>1371769</v>
+        <v>2917487</v>
       </c>
       <c r="AA98" s="9">
-        <v>2950108</v>
+        <v>1801592</v>
       </c>
       <c r="AB98" s="9">
-        <v>3926724</v>
+        <v>1193457</v>
       </c>
       <c r="AC98" s="9">
-        <v>2917487</v>
-      </c>
-      <c r="AD98" s="9">
-        <v>1801592</v>
-      </c>
-      <c r="AE98" s="9">
-        <v>1193457</v>
-      </c>
-      <c r="AF98" s="9">
         <v>1488987</v>
+      </c>
+      <c r="AD98" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE98" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF98" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="AG98" s="9" t="s">
         <v>58</v>
@@ -12540,86 +12540,86 @@
       <c r="AA100" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AB100" s="9" t="s">
-        <v>58</v>
+      <c r="AB100" s="9">
+        <v>51030000</v>
       </c>
       <c r="AC100" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AD100" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE100" s="9">
-        <v>51030000</v>
-      </c>
-      <c r="AF100" s="9" t="s">
-        <v>58</v>
+      <c r="AD100" s="9">
+        <v>70909722</v>
+      </c>
+      <c r="AE100" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF100" s="9">
+        <v>53757000</v>
       </c>
       <c r="AG100" s="9">
-        <v>70909722</v>
+        <v>74150000</v>
       </c>
       <c r="AH100" s="9" t="s">
         <v>58</v>
       </c>
       <c r="AI100" s="9">
-        <v>53757000</v>
+        <v>76725000</v>
       </c>
       <c r="AJ100" s="9">
-        <v>74150000</v>
+        <v>98204000</v>
       </c>
       <c r="AK100" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AL100" s="9">
-        <v>76725000</v>
+      <c r="AL100" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="AM100" s="9">
-        <v>98204000</v>
-      </c>
-      <c r="AN100" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO100" s="9" t="s">
-        <v>58</v>
+        <v>103154375</v>
+      </c>
+      <c r="AN100" s="9">
+        <v>104386667</v>
+      </c>
+      <c r="AO100" s="9">
+        <v>106780556</v>
       </c>
       <c r="AP100" s="9">
-        <v>103154375</v>
-      </c>
-      <c r="AQ100" s="9">
-        <v>104386667</v>
-      </c>
-      <c r="AR100" s="9">
-        <v>106780556</v>
-      </c>
-      <c r="AS100" s="9">
         <v>110086667</v>
       </c>
-      <c r="AT100" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU100" s="9" t="s">
-        <v>58</v>
+      <c r="AQ100" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR100" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS100" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT100" s="9">
+        <v>129580000</v>
+      </c>
+      <c r="AU100" s="9">
+        <v>130074286</v>
       </c>
       <c r="AV100" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AW100" s="9">
-        <v>129580000</v>
+      <c r="AW100" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="AX100" s="9">
-        <v>130074286</v>
-      </c>
-      <c r="AY100" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ100" s="9" t="s">
-        <v>58</v>
+        <v>82690000</v>
+      </c>
+      <c r="AY100" s="9">
+        <v>86852000</v>
+      </c>
+      <c r="AZ100" s="9">
+        <v>110596774</v>
       </c>
       <c r="BA100" s="9">
-        <v>82690000</v>
+        <v>111323965</v>
       </c>
       <c r="BB100" s="9">
-        <v>86852000</v>
+        <v>104609167</v>
       </c>
     </row>
     <row r="101" spans="2:54" x14ac:dyDescent="0.3">
@@ -12654,8 +12654,8 @@
       <c r="L101" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="M101" s="13" t="s">
-        <v>58</v>
+      <c r="M101" s="13">
+        <v>102425000</v>
       </c>
       <c r="N101" s="13" t="s">
         <v>58</v>
@@ -12663,8 +12663,8 @@
       <c r="O101" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="P101" s="13">
-        <v>102425000</v>
+      <c r="P101" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="Q101" s="13" t="s">
         <v>58</v>
@@ -12675,8 +12675,8 @@
       <c r="S101" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T101" s="13" t="s">
-        <v>58</v>
+      <c r="T101" s="13">
+        <v>255280000</v>
       </c>
       <c r="U101" s="13" t="s">
         <v>58</v>
@@ -12684,38 +12684,38 @@
       <c r="V101" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W101" s="13">
-        <v>255280000</v>
-      </c>
-      <c r="X101" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y101" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z101" s="13" t="s">
-        <v>58</v>
+      <c r="W101" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="X101" s="13">
+        <v>337938710</v>
+      </c>
+      <c r="Y101" s="13">
+        <v>365590909</v>
+      </c>
+      <c r="Z101" s="13">
+        <v>365590909</v>
       </c>
       <c r="AA101" s="13">
-        <v>337938710</v>
+        <v>461430000</v>
       </c>
       <c r="AB101" s="13">
-        <v>365590909</v>
+        <v>563660000</v>
       </c>
       <c r="AC101" s="13">
-        <v>365590909</v>
+        <v>826541667</v>
       </c>
       <c r="AD101" s="13">
-        <v>461430000</v>
-      </c>
-      <c r="AE101" s="13">
-        <v>563660000</v>
-      </c>
-      <c r="AF101" s="13">
-        <v>826541667</v>
-      </c>
-      <c r="AG101" s="13">
         <v>837702703</v>
+      </c>
+      <c r="AE101" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF101" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG101" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH101" s="13" t="s">
         <v>58</v>
